--- a/pbelasting/input/200218_koppeltabel.xlsx
+++ b/pbelasting/input/200218_koppeltabel.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moria02\stack\Schoon water\Stand van zake waterkwaliteit\R\WaternetAnalyse\pbelasting\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E3E7FB-8CE2-4F99-94B5-3D4A1B7769FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8EB84C-F5C4-42A6-BF66-9C10A58C5047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namenBalansen201903240706" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$L$2:$N$228</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">namenBalansen201903240706!$A$1:$K$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">namenBalansen201903240706!$A$1:$M$329</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="42" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="1264">
   <si>
     <t>2010-GAF_F002.xlsx</t>
   </si>
@@ -3824,6 +3827,12 @@
   </si>
   <si>
     <t>3320-EAG-4</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>waterdiepte_grid</t>
   </si>
 </sst>
 </file>
@@ -4015,7 +4024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4210,6 +4219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4E5C68"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4419,7 +4434,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4464,6 +4479,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4521,6 +4540,2652 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="dieptelichtstats_rasters2010201"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>2550-EAG-2</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>botshol1</v>
+          </cell>
+          <cell r="C2">
+            <v>706599</v>
+          </cell>
+          <cell r="D2">
+            <v>-1196054.361</v>
+          </cell>
+          <cell r="E2">
+            <v>386435</v>
+          </cell>
+          <cell r="F2">
+            <v>1.7214927440000001</v>
+          </cell>
+          <cell r="G2">
+            <v>386439</v>
+          </cell>
+          <cell r="H2">
+            <v>0.54690000999999999</v>
+          </cell>
+          <cell r="I2">
+            <v>386439</v>
+          </cell>
+          <cell r="J2">
+            <v>0.54690000999999999</v>
+          </cell>
+          <cell r="K2">
+            <v>386439</v>
+          </cell>
+          <cell r="L2">
+            <v>0.54690000999999999</v>
+          </cell>
+          <cell r="M2">
+            <v>-0.91436173499999995</v>
+          </cell>
+          <cell r="N2">
+            <v>-1.3110532479999999</v>
+          </cell>
+          <cell r="O2">
+            <v>-1.6422614769999999</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>2550-EAG-2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Noorderpolder of Botshol (zuid en west), Botshol Kleine- en Groote Wije</v>
+          </cell>
+          <cell r="C3">
+            <v>655847</v>
+          </cell>
+          <cell r="D3">
+            <v>-1141054.9680000001</v>
+          </cell>
+          <cell r="E3">
+            <v>390089</v>
+          </cell>
+          <cell r="F3">
+            <v>1.8569723229999999</v>
+          </cell>
+          <cell r="G3">
+            <v>390090</v>
+          </cell>
+          <cell r="H3">
+            <v>0.59478811399999998</v>
+          </cell>
+          <cell r="I3">
+            <v>390090</v>
+          </cell>
+          <cell r="J3">
+            <v>0.59478811399999998</v>
+          </cell>
+          <cell r="K3">
+            <v>390090</v>
+          </cell>
+          <cell r="L3">
+            <v>0.59478811399999998</v>
+          </cell>
+          <cell r="M3">
+            <v>-0.97511715499999996</v>
+          </cell>
+          <cell r="N3">
+            <v>-1.3659943779999999</v>
+          </cell>
+          <cell r="O3">
+            <v>-1.7002105430000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Gaasperplas</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Gaasperplas1</v>
+          </cell>
+          <cell r="C4">
+            <v>581968</v>
+          </cell>
+          <cell r="D4">
+            <v>-7378214.273</v>
+          </cell>
+          <cell r="E4">
+            <v>125771</v>
+          </cell>
+          <cell r="F4">
+            <v>4.7353218139999997</v>
+          </cell>
+          <cell r="G4">
+            <v>96109</v>
+          </cell>
+          <cell r="H4">
+            <v>0.91111532399999995</v>
+          </cell>
+          <cell r="I4">
+            <v>114356</v>
+          </cell>
+          <cell r="J4">
+            <v>0.93571826000000002</v>
+          </cell>
+          <cell r="K4">
+            <v>125771</v>
+          </cell>
+          <cell r="L4">
+            <v>0.72718074399999999</v>
+          </cell>
+          <cell r="M4">
+            <v>-0.85133710600000001</v>
+          </cell>
+          <cell r="N4">
+            <v>-7.576053591</v>
+          </cell>
+          <cell r="O4">
+            <v>-13.205402060000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>2220-EAG-1</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Zuid Bijlmer, Gaasperplas</v>
+          </cell>
+          <cell r="C5">
+            <v>581960</v>
+          </cell>
+          <cell r="D5">
+            <v>-7378200.2889999999</v>
+          </cell>
+          <cell r="E5">
+            <v>125763</v>
+          </cell>
+          <cell r="F5">
+            <v>4.7353218139999997</v>
+          </cell>
+          <cell r="G5">
+            <v>96101</v>
+          </cell>
+          <cell r="H5">
+            <v>0.91110858299999997</v>
+          </cell>
+          <cell r="I5">
+            <v>114348</v>
+          </cell>
+          <cell r="J5">
+            <v>0.93571405200000002</v>
+          </cell>
+          <cell r="K5">
+            <v>125763</v>
+          </cell>
+          <cell r="L5">
+            <v>0.72716812500000005</v>
+          </cell>
+          <cell r="M5">
+            <v>-0.85133382800000001</v>
+          </cell>
+          <cell r="N5">
+            <v>-7.5762933449999998</v>
+          </cell>
+          <cell r="O5">
+            <v>-13.20554368</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Grote Maarsseveense Plas</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Grote Maarsseveense Plas1</v>
+          </cell>
+          <cell r="C6">
+            <v>623408</v>
+          </cell>
+          <cell r="D6">
+            <v>-7920424.7850000001</v>
+          </cell>
+          <cell r="E6">
+            <v>192477</v>
+          </cell>
+          <cell r="F6">
+            <v>6.9577256820000004</v>
+          </cell>
+          <cell r="G6">
+            <v>112123</v>
+          </cell>
+          <cell r="H6">
+            <v>0.92552726100000005</v>
+          </cell>
+          <cell r="I6">
+            <v>130224</v>
+          </cell>
+          <cell r="J6">
+            <v>0.93291687000000001</v>
+          </cell>
+          <cell r="K6">
+            <v>192478</v>
+          </cell>
+          <cell r="L6">
+            <v>0.93513547699999999</v>
+          </cell>
+          <cell r="M6">
+            <v>-0.48979224799999999</v>
+          </cell>
+          <cell r="N6">
+            <v>-6.7402472820000003</v>
+          </cell>
+          <cell r="O6">
+            <v>-11.37671321</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>3360-EAG-11</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Polder Maarsseveen-Westbroek, Grote Maarsseveensche Plas</v>
+          </cell>
+          <cell r="C7">
+            <v>623408</v>
+          </cell>
+          <cell r="D7">
+            <v>-7920424.7850000001</v>
+          </cell>
+          <cell r="E7">
+            <v>192477</v>
+          </cell>
+          <cell r="F7">
+            <v>6.9577256820000004</v>
+          </cell>
+          <cell r="G7">
+            <v>112123</v>
+          </cell>
+          <cell r="H7">
+            <v>0.92552726100000005</v>
+          </cell>
+          <cell r="I7">
+            <v>130224</v>
+          </cell>
+          <cell r="J7">
+            <v>0.93291687000000001</v>
+          </cell>
+          <cell r="K7">
+            <v>192478</v>
+          </cell>
+          <cell r="L7">
+            <v>0.93513547699999999</v>
+          </cell>
+          <cell r="M7">
+            <v>-0.48979224799999999</v>
+          </cell>
+          <cell r="N7">
+            <v>-6.7402472820000003</v>
+          </cell>
+          <cell r="O7">
+            <v>-11.37671321</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Hollands Ankeveense Plassen</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Hollands Ankeveense Plassen1</v>
+          </cell>
+          <cell r="C8">
+            <v>951791</v>
+          </cell>
+          <cell r="D8">
+            <v>-1138307.1939999999</v>
+          </cell>
+          <cell r="E8">
+            <v>328160</v>
+          </cell>
+          <cell r="F8">
+            <v>1.0995681580000001</v>
+          </cell>
+          <cell r="G8">
+            <v>328163</v>
+          </cell>
+          <cell r="H8">
+            <v>0.34478472700000001</v>
+          </cell>
+          <cell r="I8">
+            <v>328163</v>
+          </cell>
+          <cell r="J8">
+            <v>0.34478472700000001</v>
+          </cell>
+          <cell r="K8">
+            <v>328163</v>
+          </cell>
+          <cell r="L8">
+            <v>0.34478472700000001</v>
+          </cell>
+          <cell r="M8">
+            <v>-0.50475737399999998</v>
+          </cell>
+          <cell r="N8">
+            <v>-1.0467959339999999</v>
+          </cell>
+          <cell r="O8">
+            <v>-1.240419954</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>4210-EAG-5</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Hollands Ankeveensche Polder, Ankeveense Plassen HAP oost</v>
+          </cell>
+          <cell r="C9">
+            <v>82577</v>
+          </cell>
+          <cell r="D9">
+            <v>-122557.76519999999</v>
+          </cell>
+          <cell r="E9">
+            <v>79465</v>
+          </cell>
+          <cell r="F9">
+            <v>1.854832214</v>
+          </cell>
+          <cell r="G9">
+            <v>79465</v>
+          </cell>
+          <cell r="H9">
+            <v>0.96231396199999997</v>
+          </cell>
+          <cell r="I9">
+            <v>79465</v>
+          </cell>
+          <cell r="J9">
+            <v>0.96231396199999997</v>
+          </cell>
+          <cell r="K9">
+            <v>79465</v>
+          </cell>
+          <cell r="L9">
+            <v>0.96231396199999997</v>
+          </cell>
+          <cell r="M9">
+            <v>-0.41448916800000002</v>
+          </cell>
+          <cell r="N9">
+            <v>-1.4528769909999999</v>
+          </cell>
+          <cell r="O9">
+            <v>-1.6799012120000001</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>4210-EAG-2</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Hollands Ankeveensche Polder, Ankeveensche Plassen HAP noord</v>
+          </cell>
+          <cell r="C10">
+            <v>151831</v>
+          </cell>
+          <cell r="D10">
+            <v>-166573.11249999999</v>
+          </cell>
+          <cell r="E10">
+            <v>117003</v>
+          </cell>
+          <cell r="F10">
+            <v>1.3534798370000001</v>
+          </cell>
+          <cell r="G10">
+            <v>117003</v>
+          </cell>
+          <cell r="H10">
+            <v>0.77061337900000004</v>
+          </cell>
+          <cell r="I10">
+            <v>117003</v>
+          </cell>
+          <cell r="J10">
+            <v>0.77061337900000004</v>
+          </cell>
+          <cell r="K10">
+            <v>117003</v>
+          </cell>
+          <cell r="L10">
+            <v>0.77061337900000004</v>
+          </cell>
+          <cell r="M10">
+            <v>-0.38133087700000001</v>
+          </cell>
+          <cell r="N10">
+            <v>-0.99263009400000002</v>
+          </cell>
+          <cell r="O10">
+            <v>-1.167752117</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>4210-EAG-3</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Hollands Ankeveensche Polder, Ankeveensche Plassen HAP zuid</v>
+          </cell>
+          <cell r="C11">
+            <v>693728</v>
+          </cell>
+          <cell r="D11">
+            <v>-824239.53870000003</v>
+          </cell>
+          <cell r="E11">
+            <v>239198</v>
+          </cell>
+          <cell r="F11">
+            <v>1.0995681580000001</v>
+          </cell>
+          <cell r="G11">
+            <v>239201</v>
+          </cell>
+          <cell r="H11">
+            <v>0.34480516900000002</v>
+          </cell>
+          <cell r="I11">
+            <v>239201</v>
+          </cell>
+          <cell r="J11">
+            <v>0.34480516900000002</v>
+          </cell>
+          <cell r="K11">
+            <v>239201</v>
+          </cell>
+          <cell r="L11">
+            <v>0.34480516900000002</v>
+          </cell>
+          <cell r="M11">
+            <v>-0.57105432099999998</v>
+          </cell>
+          <cell r="N11">
+            <v>-1.048732918</v>
+          </cell>
+          <cell r="O11">
+            <v>-1.237261385</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Kleine Maarsseveense plas</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Kleine_Maarsseveense_Plas_mNAP1</v>
+          </cell>
+          <cell r="C12">
+            <v>204217</v>
+          </cell>
+          <cell r="D12">
+            <v>-2100224.75</v>
+          </cell>
+          <cell r="E12">
+            <v>31049</v>
+          </cell>
+          <cell r="F12">
+            <v>3.4027370499999998</v>
+          </cell>
+          <cell r="G12">
+            <v>25837</v>
+          </cell>
+          <cell r="H12">
+            <v>0.80087412000000002</v>
+          </cell>
+          <cell r="I12">
+            <v>31049</v>
+          </cell>
+          <cell r="J12">
+            <v>0.69554211499999996</v>
+          </cell>
+          <cell r="K12">
+            <v>31049</v>
+          </cell>
+          <cell r="L12">
+            <v>0.39852393800000002</v>
+          </cell>
+          <cell r="M12">
+            <v>-1.8008869670000001</v>
+          </cell>
+          <cell r="N12">
+            <v>-5.9861538909999998</v>
+          </cell>
+          <cell r="O12">
+            <v>-9.7922126790000004</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>3360-EAG-9</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Polder Maarsseveen-Westbroek, Kleine Maarsseveensche Plas</v>
+          </cell>
+          <cell r="C13">
+            <v>198047</v>
+          </cell>
+          <cell r="D13">
+            <v>-2092486.2879999999</v>
+          </cell>
+          <cell r="E13">
+            <v>25019</v>
+          </cell>
+          <cell r="F13">
+            <v>3.4027370499999998</v>
+          </cell>
+          <cell r="G13">
+            <v>19936</v>
+          </cell>
+          <cell r="H13">
+            <v>0.76059669600000002</v>
+          </cell>
+          <cell r="I13">
+            <v>25019</v>
+          </cell>
+          <cell r="J13">
+            <v>0.65013122700000003</v>
+          </cell>
+          <cell r="K13">
+            <v>25019</v>
+          </cell>
+          <cell r="L13">
+            <v>0.34874547</v>
+          </cell>
+          <cell r="M13">
+            <v>-2.1873632449999998</v>
+          </cell>
+          <cell r="N13">
+            <v>-6.335183432</v>
+          </cell>
+          <cell r="O13">
+            <v>-10.07659836</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Kortenhoefse plassen</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Kortenhoefse Plassen1</v>
+          </cell>
+          <cell r="C14">
+            <v>1716244</v>
+          </cell>
+          <cell r="D14">
+            <v>-1772450.246</v>
+          </cell>
+          <cell r="E14">
+            <v>1013559</v>
+          </cell>
+          <cell r="F14">
+            <v>1.107261753</v>
+          </cell>
+          <cell r="G14">
+            <v>1013564</v>
+          </cell>
+          <cell r="H14">
+            <v>0.59057103799999999</v>
+          </cell>
+          <cell r="I14">
+            <v>1013564</v>
+          </cell>
+          <cell r="J14">
+            <v>0.59057103799999999</v>
+          </cell>
+          <cell r="K14">
+            <v>1013564</v>
+          </cell>
+          <cell r="L14">
+            <v>0.59057103799999999</v>
+          </cell>
+          <cell r="M14">
+            <v>-0.31718517299999999</v>
+          </cell>
+          <cell r="N14">
+            <v>-0.76329617299999997</v>
+          </cell>
+          <cell r="O14">
+            <v>-0.98439878000000003</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>3230-EAG-2</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Polder Kortenhoef, Wijde Blik</v>
+          </cell>
+          <cell r="C15">
+            <v>5450</v>
+          </cell>
+          <cell r="D15">
+            <v>-12960.609119999999</v>
+          </cell>
+          <cell r="E15">
+            <v>5450</v>
+          </cell>
+          <cell r="F15">
+            <v>3.6567053450000002</v>
+          </cell>
+          <cell r="G15">
+            <v>5450</v>
+          </cell>
+          <cell r="H15">
+            <v>1</v>
+          </cell>
+          <cell r="I15">
+            <v>5450</v>
+          </cell>
+          <cell r="J15">
+            <v>1</v>
+          </cell>
+          <cell r="K15">
+            <v>5450</v>
+          </cell>
+          <cell r="L15">
+            <v>1</v>
+          </cell>
+          <cell r="M15">
+            <v>-1.5763794040000001</v>
+          </cell>
+          <cell r="N15">
+            <v>-2.3120222670000001</v>
+          </cell>
+          <cell r="O15">
+            <v>-2.4685364349999999</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>3230-EAG-1</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Polder Kortenhoef, Het Hol/Suikerpot</v>
+          </cell>
+          <cell r="C16">
+            <v>243738</v>
+          </cell>
+          <cell r="D16">
+            <v>-246361.97649999999</v>
+          </cell>
+          <cell r="E16">
+            <v>200910</v>
+          </cell>
+          <cell r="F16">
+            <v>1.3150255980000001</v>
+          </cell>
+          <cell r="G16">
+            <v>200913</v>
+          </cell>
+          <cell r="H16">
+            <v>0.82429904200000004</v>
+          </cell>
+          <cell r="I16">
+            <v>200913</v>
+          </cell>
+          <cell r="J16">
+            <v>0.82429904200000004</v>
+          </cell>
+          <cell r="K16">
+            <v>200913</v>
+          </cell>
+          <cell r="L16">
+            <v>0.82429904200000004</v>
+          </cell>
+          <cell r="M16">
+            <v>-0.297685859</v>
+          </cell>
+          <cell r="N16">
+            <v>-0.82233739800000005</v>
+          </cell>
+          <cell r="O16">
+            <v>-1.0851886129999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>3230-EAG-3</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Polder Kortenhoef, Wijde Gat</v>
+          </cell>
+          <cell r="C17">
+            <v>956464</v>
+          </cell>
+          <cell r="D17">
+            <v>-925261.3774</v>
+          </cell>
+          <cell r="E17">
+            <v>638678</v>
+          </cell>
+          <cell r="F17">
+            <v>1.111698203</v>
+          </cell>
+          <cell r="G17">
+            <v>638681</v>
+          </cell>
+          <cell r="H17">
+            <v>0.66775226300000001</v>
+          </cell>
+          <cell r="I17">
+            <v>638681</v>
+          </cell>
+          <cell r="J17">
+            <v>0.66775226300000001</v>
+          </cell>
+          <cell r="K17">
+            <v>638681</v>
+          </cell>
+          <cell r="L17">
+            <v>0.66775226300000001</v>
+          </cell>
+          <cell r="M17">
+            <v>-0.37513814400000001</v>
+          </cell>
+          <cell r="N17">
+            <v>-0.77000664299999999</v>
+          </cell>
+          <cell r="O17">
+            <v>-0.93115156700000001</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Loenderveense Plassen</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Loenderveense Plassen1</v>
+          </cell>
+          <cell r="C18">
+            <v>2129392</v>
+          </cell>
+          <cell r="D18">
+            <v>-4610552.1789999995</v>
+          </cell>
+          <cell r="E18">
+            <v>1026938</v>
+          </cell>
+          <cell r="F18">
+            <v>2.321025712</v>
+          </cell>
+          <cell r="G18">
+            <v>1026951</v>
+          </cell>
+          <cell r="H18">
+            <v>0.48227428300000003</v>
+          </cell>
+          <cell r="I18">
+            <v>1026951</v>
+          </cell>
+          <cell r="J18">
+            <v>0.48227428300000003</v>
+          </cell>
+          <cell r="K18">
+            <v>1026951</v>
+          </cell>
+          <cell r="L18">
+            <v>0.48227428300000003</v>
+          </cell>
+          <cell r="M18">
+            <v>-1.1264207079999999</v>
+          </cell>
+          <cell r="N18">
+            <v>-2.058033021</v>
+          </cell>
+          <cell r="O18">
+            <v>-2.340151938</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>3320-EAG-4</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Loenderveen, Loenderveensche Plas</v>
+          </cell>
+          <cell r="C19">
+            <v>2129392</v>
+          </cell>
+          <cell r="D19">
+            <v>-4610552.1789999995</v>
+          </cell>
+          <cell r="E19">
+            <v>1026938</v>
+          </cell>
+          <cell r="F19">
+            <v>2.321025712</v>
+          </cell>
+          <cell r="G19">
+            <v>1026951</v>
+          </cell>
+          <cell r="H19">
+            <v>0.48227428300000003</v>
+          </cell>
+          <cell r="I19">
+            <v>1026951</v>
+          </cell>
+          <cell r="J19">
+            <v>0.48227428300000003</v>
+          </cell>
+          <cell r="K19">
+            <v>1026951</v>
+          </cell>
+          <cell r="L19">
+            <v>0.48227428300000003</v>
+          </cell>
+          <cell r="M19">
+            <v>-1.1264207079999999</v>
+          </cell>
+          <cell r="N19">
+            <v>-2.058033021</v>
+          </cell>
+          <cell r="O19">
+            <v>-2.340151938</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Loosdrechtse plassen</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Loosdrechtse Plassen1</v>
+          </cell>
+          <cell r="C20">
+            <v>9528931</v>
+          </cell>
+          <cell r="D20">
+            <v>-20527847.239999998</v>
+          </cell>
+          <cell r="E20">
+            <v>1267934</v>
+          </cell>
+          <cell r="F20">
+            <v>1.361641799</v>
+          </cell>
+          <cell r="G20">
+            <v>1267951</v>
+          </cell>
+          <cell r="H20">
+            <v>0.13412046499999999</v>
+          </cell>
+          <cell r="I20">
+            <v>1267951</v>
+          </cell>
+          <cell r="J20">
+            <v>0.1330633</v>
+          </cell>
+          <cell r="K20">
+            <v>1267951</v>
+          </cell>
+          <cell r="L20">
+            <v>0.1330633</v>
+          </cell>
+          <cell r="M20">
+            <v>-0.98341177700000004</v>
+          </cell>
+          <cell r="N20">
+            <v>-1.8295422670000001</v>
+          </cell>
+          <cell r="O20">
+            <v>-2.2288161390000001</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>3300-EAG-4</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Muyeveld, Kievitsbuurt zuid</v>
+          </cell>
+          <cell r="C21">
+            <v>269</v>
+          </cell>
+          <cell r="D21">
+            <v>-58.186646279999998</v>
+          </cell>
+          <cell r="E21">
+            <v>269</v>
+          </cell>
+          <cell r="F21">
+            <v>1.5895421430000001</v>
+          </cell>
+          <cell r="G21">
+            <v>269</v>
+          </cell>
+          <cell r="H21">
+            <v>1</v>
+          </cell>
+          <cell r="I21">
+            <v>269</v>
+          </cell>
+          <cell r="J21">
+            <v>1</v>
+          </cell>
+          <cell r="K21">
+            <v>269</v>
+          </cell>
+          <cell r="L21">
+            <v>1</v>
+          </cell>
+          <cell r="M21">
+            <v>1.9412979E-2</v>
+          </cell>
+          <cell r="N21">
+            <v>-3.7201999999999998E-4</v>
+          </cell>
+          <cell r="O21">
+            <v>-8.0809250999999999E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>3300-EAG-1</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Muyeveld, Loosdrechtsche Plassen</v>
+          </cell>
+          <cell r="C22">
+            <v>9528527</v>
+          </cell>
+          <cell r="D22">
+            <v>-20632201.129999999</v>
+          </cell>
+          <cell r="E22">
+            <v>1225942</v>
+          </cell>
+          <cell r="F22">
+            <v>1.361641799</v>
+          </cell>
+          <cell r="G22">
+            <v>1225971</v>
+          </cell>
+          <cell r="H22">
+            <v>0.129727494</v>
+          </cell>
+          <cell r="I22">
+            <v>1225971</v>
+          </cell>
+          <cell r="J22">
+            <v>0.12866322399999999</v>
+          </cell>
+          <cell r="K22">
+            <v>1225971</v>
+          </cell>
+          <cell r="L22">
+            <v>0.12866322399999999</v>
+          </cell>
+          <cell r="M22">
+            <v>-0.99477919699999995</v>
+          </cell>
+          <cell r="N22">
+            <v>-1.8405740660000001</v>
+          </cell>
+          <cell r="O22">
+            <v>-2.239829437</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>3300-EAG-3</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Muyeveld, Kievitsbuurt noord</v>
+          </cell>
+          <cell r="C23">
+            <v>125</v>
+          </cell>
+          <cell r="D23">
+            <v>-5.2540566320000002</v>
+          </cell>
+          <cell r="E23">
+            <v>125</v>
+          </cell>
+          <cell r="F23">
+            <v>1.4585398140000001</v>
+          </cell>
+          <cell r="G23">
+            <v>125</v>
+          </cell>
+          <cell r="H23">
+            <v>1</v>
+          </cell>
+          <cell r="I23">
+            <v>125</v>
+          </cell>
+          <cell r="J23">
+            <v>1</v>
+          </cell>
+          <cell r="K23">
+            <v>125</v>
+          </cell>
+          <cell r="L23">
+            <v>1</v>
+          </cell>
+          <cell r="M23">
+            <v>1.9412979E-2</v>
+          </cell>
+          <cell r="N23">
+            <v>4.2901839999999998E-3</v>
+          </cell>
+          <cell r="O23">
+            <v>-2.399625E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Naardermeer</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Naardermeer1</v>
+          </cell>
+          <cell r="C24">
+            <v>2121012</v>
+          </cell>
+          <cell r="D24">
+            <v>-2023125.8149999999</v>
+          </cell>
+          <cell r="E24">
+            <v>2112342</v>
+          </cell>
+          <cell r="F24">
+            <v>1.804724099</v>
+          </cell>
+          <cell r="G24">
+            <v>2112343</v>
+          </cell>
+          <cell r="H24">
+            <v>0.99591280000000004</v>
+          </cell>
+          <cell r="I24">
+            <v>2112343</v>
+          </cell>
+          <cell r="J24">
+            <v>0.99591280000000004</v>
+          </cell>
+          <cell r="K24">
+            <v>2112343</v>
+          </cell>
+          <cell r="L24">
+            <v>0.99591280000000004</v>
+          </cell>
+          <cell r="M24">
+            <v>-0.36415296600000002</v>
+          </cell>
+          <cell r="N24">
+            <v>-0.80757256499999996</v>
+          </cell>
+          <cell r="O24">
+            <v>-0.97782443500000005</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>3100-EAG-5</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Naardermeer, Wijde- of Bovenste Blik</v>
+          </cell>
+          <cell r="C25">
+            <v>319135</v>
+          </cell>
+          <cell r="D25">
+            <v>-219809.46909999999</v>
+          </cell>
+          <cell r="E25">
+            <v>284490</v>
+          </cell>
+          <cell r="F25">
+            <v>0.83757638000000001</v>
+          </cell>
+          <cell r="G25">
+            <v>284492</v>
+          </cell>
+          <cell r="H25">
+            <v>0.89144719299999997</v>
+          </cell>
+          <cell r="I25">
+            <v>284492</v>
+          </cell>
+          <cell r="J25">
+            <v>0.89144719299999997</v>
+          </cell>
+          <cell r="K25">
+            <v>284492</v>
+          </cell>
+          <cell r="L25">
+            <v>0.89144719299999997</v>
+          </cell>
+          <cell r="M25">
+            <v>-0.39419905900000002</v>
+          </cell>
+          <cell r="N25">
+            <v>-0.62496679799999999</v>
+          </cell>
+          <cell r="O25">
+            <v>-0.69482885400000005</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>3100-EAG-3</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Naardermeer, Groote Meer ZO</v>
+          </cell>
+          <cell r="C26">
+            <v>498464</v>
+          </cell>
+          <cell r="D26">
+            <v>-456780.22230000002</v>
+          </cell>
+          <cell r="E26">
+            <v>483400</v>
+          </cell>
+          <cell r="F26">
+            <v>1.2139066590000001</v>
+          </cell>
+          <cell r="G26">
+            <v>483400</v>
+          </cell>
+          <cell r="H26">
+            <v>0.96977916200000003</v>
+          </cell>
+          <cell r="I26">
+            <v>483400</v>
+          </cell>
+          <cell r="J26">
+            <v>0.96977916200000003</v>
+          </cell>
+          <cell r="K26">
+            <v>483400</v>
+          </cell>
+          <cell r="L26">
+            <v>0.96977916200000003</v>
+          </cell>
+          <cell r="M26">
+            <v>-0.37615330000000002</v>
+          </cell>
+          <cell r="N26">
+            <v>-0.90316526699999999</v>
+          </cell>
+          <cell r="O26">
+            <v>-0.96619765499999999</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>3100-EAG-2</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Naardermeer, Groote Meer Noord</v>
+          </cell>
+          <cell r="C27">
+            <v>844137</v>
+          </cell>
+          <cell r="D27">
+            <v>-896335.6679</v>
+          </cell>
+          <cell r="E27">
+            <v>840402</v>
+          </cell>
+          <cell r="F27">
+            <v>1.804724099</v>
+          </cell>
+          <cell r="G27">
+            <v>840403</v>
+          </cell>
+          <cell r="H27">
+            <v>0.99557654699999998</v>
+          </cell>
+          <cell r="I27">
+            <v>840403</v>
+          </cell>
+          <cell r="J27">
+            <v>0.99557654699999998</v>
+          </cell>
+          <cell r="K27">
+            <v>840403</v>
+          </cell>
+          <cell r="L27">
+            <v>0.99557654699999998</v>
+          </cell>
+          <cell r="M27">
+            <v>-0.495378981</v>
+          </cell>
+          <cell r="N27">
+            <v>-0.97085279000000002</v>
+          </cell>
+          <cell r="O27">
+            <v>-1.125942693</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>3100-EAG-1</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Naardermeer, Binnezij/Spookgat</v>
+          </cell>
+          <cell r="C28">
+            <v>245672</v>
+          </cell>
+          <cell r="D28">
+            <v>-262038.6655</v>
+          </cell>
+          <cell r="E28">
+            <v>241797</v>
+          </cell>
+          <cell r="F28">
+            <v>1.8783558600000001</v>
+          </cell>
+          <cell r="G28">
+            <v>241797</v>
+          </cell>
+          <cell r="H28">
+            <v>0.98422693699999997</v>
+          </cell>
+          <cell r="I28">
+            <v>241797</v>
+          </cell>
+          <cell r="J28">
+            <v>0.98422693699999997</v>
+          </cell>
+          <cell r="K28">
+            <v>241797</v>
+          </cell>
+          <cell r="L28">
+            <v>0.98422693699999997</v>
+          </cell>
+          <cell r="M28">
+            <v>-8.6875401000000005E-2</v>
+          </cell>
+          <cell r="N28">
+            <v>-0.91168685900000002</v>
+          </cell>
+          <cell r="O28">
+            <v>-1.175524936</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>3100-EAG-4</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Naardermeer, Veertigmorgen</v>
+          </cell>
+          <cell r="C29">
+            <v>208227</v>
+          </cell>
+          <cell r="D29">
+            <v>-184752.0203</v>
+          </cell>
+          <cell r="E29">
+            <v>208227</v>
+          </cell>
+          <cell r="F29">
+            <v>2.1293555620000002</v>
+          </cell>
+          <cell r="G29">
+            <v>208227</v>
+          </cell>
+          <cell r="H29">
+            <v>1</v>
+          </cell>
+          <cell r="I29">
+            <v>208227</v>
+          </cell>
+          <cell r="J29">
+            <v>1</v>
+          </cell>
+          <cell r="K29">
+            <v>208227</v>
+          </cell>
+          <cell r="L29">
+            <v>1</v>
+          </cell>
+          <cell r="M29">
+            <v>-0.24429735899999999</v>
+          </cell>
+          <cell r="N29">
+            <v>-0.81317687999999999</v>
+          </cell>
+          <cell r="O29">
+            <v>-0.91935776300000005</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Ouderkerkerplas</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Ouderkerkerplas1</v>
+          </cell>
+          <cell r="C30">
+            <v>728241</v>
+          </cell>
+          <cell r="D30">
+            <v>-11796383.130000001</v>
+          </cell>
+          <cell r="E30">
+            <v>141558</v>
+          </cell>
+          <cell r="F30">
+            <v>1.9821070780000001</v>
+          </cell>
+          <cell r="G30">
+            <v>141558</v>
+          </cell>
+          <cell r="H30">
+            <v>0.61372977500000003</v>
+          </cell>
+          <cell r="I30">
+            <v>141558</v>
+          </cell>
+          <cell r="J30">
+            <v>0.55154329899999999</v>
+          </cell>
+          <cell r="K30">
+            <v>141558</v>
+          </cell>
+          <cell r="L30">
+            <v>0.49977581100000001</v>
+          </cell>
+          <cell r="M30">
+            <v>-0.49637293199999999</v>
+          </cell>
+          <cell r="N30">
+            <v>-3.2453038639999998</v>
+          </cell>
+          <cell r="O30">
+            <v>-13.591314069999999</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>2250-EAG-1</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Polder de Nieuwe Bullewijk en Holendrechter- en Bullewijker Polder noord, Ouderkerkerplas</v>
+          </cell>
+          <cell r="C31">
+            <v>728241</v>
+          </cell>
+          <cell r="D31">
+            <v>-11796383.130000001</v>
+          </cell>
+          <cell r="E31">
+            <v>141558</v>
+          </cell>
+          <cell r="F31">
+            <v>1.9821070780000001</v>
+          </cell>
+          <cell r="G31">
+            <v>141558</v>
+          </cell>
+          <cell r="H31">
+            <v>0.61372977500000003</v>
+          </cell>
+          <cell r="I31">
+            <v>141558</v>
+          </cell>
+          <cell r="J31">
+            <v>0.55154329899999999</v>
+          </cell>
+          <cell r="K31">
+            <v>141558</v>
+          </cell>
+          <cell r="L31">
+            <v>0.49977581100000001</v>
+          </cell>
+          <cell r="M31">
+            <v>-0.49637293199999999</v>
+          </cell>
+          <cell r="N31">
+            <v>-3.2453038639999998</v>
+          </cell>
+          <cell r="O31">
+            <v>-13.591314069999999</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Sloterplas</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Sloterplas1</v>
+          </cell>
+          <cell r="C32">
+            <v>842548</v>
+          </cell>
+          <cell r="D32">
+            <v>-12832284.529999999</v>
+          </cell>
+          <cell r="E32">
+            <v>295729</v>
+          </cell>
+          <cell r="F32">
+            <v>6.9427187249999998</v>
+          </cell>
+          <cell r="G32">
+            <v>213077</v>
+          </cell>
+          <cell r="H32">
+            <v>0.93077615300000005</v>
+          </cell>
+          <cell r="I32">
+            <v>241698</v>
+          </cell>
+          <cell r="J32">
+            <v>0.95651141500000003</v>
+          </cell>
+          <cell r="K32">
+            <v>295729</v>
+          </cell>
+          <cell r="L32">
+            <v>0.972568816</v>
+          </cell>
+          <cell r="M32">
+            <v>-1.2036658280000001</v>
+          </cell>
+          <cell r="N32">
+            <v>-4.5033406129999998</v>
+          </cell>
+          <cell r="O32">
+            <v>-15.729558170000001</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>8070-EAG-1</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Sloterbinnen en Middelveldsepolder, Sloterplas</v>
+          </cell>
+          <cell r="C33">
+            <v>834249</v>
+          </cell>
+          <cell r="D33">
+            <v>-12820600.35</v>
+          </cell>
+          <cell r="E33">
+            <v>287430</v>
+          </cell>
+          <cell r="F33">
+            <v>6.9427187249999998</v>
+          </cell>
+          <cell r="G33">
+            <v>204778</v>
+          </cell>
+          <cell r="H33">
+            <v>0.92817223800000004</v>
+          </cell>
+          <cell r="I33">
+            <v>233399</v>
+          </cell>
+          <cell r="J33">
+            <v>0.95503461700000003</v>
+          </cell>
+          <cell r="K33">
+            <v>287430</v>
+          </cell>
+          <cell r="L33">
+            <v>0.97179912800000001</v>
+          </cell>
+          <cell r="M33">
+            <v>-1.237953936</v>
+          </cell>
+          <cell r="N33">
+            <v>-4.7922725550000003</v>
+          </cell>
+          <cell r="O33">
+            <v>-15.980524239999999</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Spiegelplas</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>spplas1</v>
+          </cell>
+          <cell r="C34">
+            <v>2396442</v>
+          </cell>
+          <cell r="D34">
+            <v>-42334427.020000003</v>
+          </cell>
+          <cell r="E34">
+            <v>583851</v>
+          </cell>
+          <cell r="F34">
+            <v>6.9427187249999998</v>
+          </cell>
+          <cell r="G34">
+            <v>418526</v>
+          </cell>
+          <cell r="H34">
+            <v>0.95060348800000005</v>
+          </cell>
+          <cell r="I34">
+            <v>462007</v>
+          </cell>
+          <cell r="J34">
+            <v>0.95342132700000004</v>
+          </cell>
+          <cell r="K34">
+            <v>583853</v>
+          </cell>
+          <cell r="L34">
+            <v>0.95584176200000004</v>
+          </cell>
+          <cell r="M34">
+            <v>-1.0662782260000001</v>
+          </cell>
+          <cell r="N34">
+            <v>-9.3437516639999991</v>
+          </cell>
+          <cell r="O34">
+            <v>-16.794208659999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>3200-EAG-1</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Spiegelpolder, Spiegel- en Blijkpolderplas</v>
+          </cell>
+          <cell r="C35">
+            <v>2396442</v>
+          </cell>
+          <cell r="D35">
+            <v>-42334427.020000003</v>
+          </cell>
+          <cell r="E35">
+            <v>583851</v>
+          </cell>
+          <cell r="F35">
+            <v>6.9427187249999998</v>
+          </cell>
+          <cell r="G35">
+            <v>418526</v>
+          </cell>
+          <cell r="H35">
+            <v>0.95060348800000005</v>
+          </cell>
+          <cell r="I35">
+            <v>462007</v>
+          </cell>
+          <cell r="J35">
+            <v>0.95342132700000004</v>
+          </cell>
+          <cell r="K35">
+            <v>583853</v>
+          </cell>
+          <cell r="L35">
+            <v>0.95584176200000004</v>
+          </cell>
+          <cell r="M35">
+            <v>-1.0662782260000001</v>
+          </cell>
+          <cell r="N35">
+            <v>-9.3437516639999991</v>
+          </cell>
+          <cell r="O35">
+            <v>-16.794208659999999</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Stichts Ankeveense Plassen</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Stichts Ankeveense Plassen1</v>
+          </cell>
+          <cell r="C36">
+            <v>1199287</v>
+          </cell>
+          <cell r="D36">
+            <v>-1297860.8899999999</v>
+          </cell>
+          <cell r="E36">
+            <v>1130901</v>
+          </cell>
+          <cell r="F36">
+            <v>1.682280665</v>
+          </cell>
+          <cell r="G36">
+            <v>1130904</v>
+          </cell>
+          <cell r="H36">
+            <v>0.94298028700000003</v>
+          </cell>
+          <cell r="I36">
+            <v>1130904</v>
+          </cell>
+          <cell r="J36">
+            <v>0.94298028700000003</v>
+          </cell>
+          <cell r="K36">
+            <v>1130904</v>
+          </cell>
+          <cell r="L36">
+            <v>0.94298028700000003</v>
+          </cell>
+          <cell r="M36">
+            <v>-0.38153725300000002</v>
+          </cell>
+          <cell r="N36">
+            <v>-0.974543614</v>
+          </cell>
+          <cell r="O36">
+            <v>-1.0702154109999999</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>3201-EAG-1</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Stichtsch Ankeveensche Polder, Ankeveensche Plassen SAP noord</v>
+          </cell>
+          <cell r="C37">
+            <v>947587</v>
+          </cell>
+          <cell r="D37">
+            <v>-1062025.0430000001</v>
+          </cell>
+          <cell r="E37">
+            <v>879201</v>
+          </cell>
+          <cell r="F37">
+            <v>1.682280665</v>
+          </cell>
+          <cell r="G37">
+            <v>879204</v>
+          </cell>
+          <cell r="H37">
+            <v>0.92783459499999998</v>
+          </cell>
+          <cell r="I37">
+            <v>879204</v>
+          </cell>
+          <cell r="J37">
+            <v>0.92783459499999998</v>
+          </cell>
+          <cell r="K37">
+            <v>879204</v>
+          </cell>
+          <cell r="L37">
+            <v>0.92783459499999998</v>
+          </cell>
+          <cell r="M37">
+            <v>-0.487460167</v>
+          </cell>
+          <cell r="N37">
+            <v>-0.99560865799999998</v>
+          </cell>
+          <cell r="O37">
+            <v>-1.087510771</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Tienhovenseplassen</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Tienhovenseplas</v>
+          </cell>
+          <cell r="C38">
+            <v>350498</v>
+          </cell>
+          <cell r="D38">
+            <v>-281812.5526</v>
+          </cell>
+          <cell r="E38">
+            <v>328781</v>
+          </cell>
+          <cell r="F38">
+            <v>1.150488768</v>
+          </cell>
+          <cell r="G38">
+            <v>328781</v>
+          </cell>
+          <cell r="H38">
+            <v>0.93803958899999995</v>
+          </cell>
+          <cell r="I38">
+            <v>328781</v>
+          </cell>
+          <cell r="J38">
+            <v>0.93803958899999995</v>
+          </cell>
+          <cell r="K38">
+            <v>328781</v>
+          </cell>
+          <cell r="L38">
+            <v>0.93803958899999995</v>
+          </cell>
+          <cell r="M38">
+            <v>-0.51611531200000005</v>
+          </cell>
+          <cell r="N38">
+            <v>-0.67410223899999999</v>
+          </cell>
+          <cell r="O38">
+            <v>-0.75738068000000003</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>3300-EAG-6</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Muyeveld, Tienhovensche Plassen noord</v>
+          </cell>
+          <cell r="C39">
+            <v>170221</v>
+          </cell>
+          <cell r="D39">
+            <v>-151150.50200000001</v>
+          </cell>
+          <cell r="E39">
+            <v>160874</v>
+          </cell>
+          <cell r="F39">
+            <v>1.2209228270000001</v>
+          </cell>
+          <cell r="G39">
+            <v>160874</v>
+          </cell>
+          <cell r="H39">
+            <v>0.94508903099999997</v>
+          </cell>
+          <cell r="I39">
+            <v>160874</v>
+          </cell>
+          <cell r="J39">
+            <v>0.94508903099999997</v>
+          </cell>
+          <cell r="K39">
+            <v>160874</v>
+          </cell>
+          <cell r="L39">
+            <v>0.94508903099999997</v>
+          </cell>
+          <cell r="M39">
+            <v>-0.51281298799999997</v>
+          </cell>
+          <cell r="N39">
+            <v>-0.76223994900000003</v>
+          </cell>
+          <cell r="O39">
+            <v>-0.88376249500000004</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>3300-EAG-7</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Muyeveld, Tienhovensche Plassen zuid</v>
+          </cell>
+          <cell r="C40">
+            <v>180277</v>
+          </cell>
+          <cell r="D40">
+            <v>-130662.0505</v>
+          </cell>
+          <cell r="E40">
+            <v>176991</v>
+          </cell>
+          <cell r="F40">
+            <v>1.150488768</v>
+          </cell>
+          <cell r="G40">
+            <v>176991</v>
+          </cell>
+          <cell r="H40">
+            <v>0.98177249499999997</v>
+          </cell>
+          <cell r="I40">
+            <v>176991</v>
+          </cell>
+          <cell r="J40">
+            <v>0.98177249499999997</v>
+          </cell>
+          <cell r="K40">
+            <v>176991</v>
+          </cell>
+          <cell r="L40">
+            <v>0.98177249499999997</v>
+          </cell>
+          <cell r="M40">
+            <v>-0.51819507300000001</v>
+          </cell>
+          <cell r="N40">
+            <v>-0.64022575999999998</v>
+          </cell>
+          <cell r="O40">
+            <v>-0.69758297599999997</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Tienhovenseplassen - grid oud</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Tienhovenseplassen</v>
+          </cell>
+          <cell r="C41">
+            <v>350498</v>
+          </cell>
+          <cell r="D41">
+            <v>-281812.5526</v>
+          </cell>
+          <cell r="E41">
+            <v>328781</v>
+          </cell>
+          <cell r="F41">
+            <v>1.150488768</v>
+          </cell>
+          <cell r="G41">
+            <v>328781</v>
+          </cell>
+          <cell r="H41">
+            <v>0.93803958899999995</v>
+          </cell>
+          <cell r="I41">
+            <v>328781</v>
+          </cell>
+          <cell r="J41">
+            <v>0.93803958899999995</v>
+          </cell>
+          <cell r="K41">
+            <v>328781</v>
+          </cell>
+          <cell r="L41">
+            <v>0.93803958899999995</v>
+          </cell>
+          <cell r="M41">
+            <v>-0.51611531200000005</v>
+          </cell>
+          <cell r="N41">
+            <v>-0.67410223899999999</v>
+          </cell>
+          <cell r="O41">
+            <v>-0.75738068000000003</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>3300-EAG-6</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Muyeveld, Tienhovensche Plassen noord</v>
+          </cell>
+          <cell r="C42">
+            <v>170221</v>
+          </cell>
+          <cell r="D42">
+            <v>-151150.50200000001</v>
+          </cell>
+          <cell r="E42">
+            <v>160874</v>
+          </cell>
+          <cell r="F42">
+            <v>1.2209228270000001</v>
+          </cell>
+          <cell r="G42">
+            <v>160874</v>
+          </cell>
+          <cell r="H42">
+            <v>0.94508903099999997</v>
+          </cell>
+          <cell r="I42">
+            <v>160874</v>
+          </cell>
+          <cell r="J42">
+            <v>0.94508903099999997</v>
+          </cell>
+          <cell r="K42">
+            <v>160874</v>
+          </cell>
+          <cell r="L42">
+            <v>0.94508903099999997</v>
+          </cell>
+          <cell r="M42">
+            <v>-0.51281298799999997</v>
+          </cell>
+          <cell r="N42">
+            <v>-0.76223994900000003</v>
+          </cell>
+          <cell r="O42">
+            <v>-0.88376249500000004</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>3300-EAG-7</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Muyeveld, Tienhovensche Plassen zuid</v>
+          </cell>
+          <cell r="C43">
+            <v>180277</v>
+          </cell>
+          <cell r="D43">
+            <v>-130662.0505</v>
+          </cell>
+          <cell r="E43">
+            <v>176991</v>
+          </cell>
+          <cell r="F43">
+            <v>1.150488768</v>
+          </cell>
+          <cell r="G43">
+            <v>176991</v>
+          </cell>
+          <cell r="H43">
+            <v>0.98177249499999997</v>
+          </cell>
+          <cell r="I43">
+            <v>176991</v>
+          </cell>
+          <cell r="J43">
+            <v>0.98177249499999997</v>
+          </cell>
+          <cell r="K43">
+            <v>176991</v>
+          </cell>
+          <cell r="L43">
+            <v>0.98177249499999997</v>
+          </cell>
+          <cell r="M43">
+            <v>-0.51819507300000001</v>
+          </cell>
+          <cell r="N43">
+            <v>-0.64022575999999998</v>
+          </cell>
+          <cell r="O43">
+            <v>-0.69758297599999997</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Vinkeveense Kleine plas</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Vinkeveense Kleine plas1</v>
+          </cell>
+          <cell r="C44">
+            <v>586864</v>
+          </cell>
+          <cell r="D44">
+            <v>-1928276.5589999999</v>
+          </cell>
+          <cell r="E44">
+            <v>455472</v>
+          </cell>
+          <cell r="F44">
+            <v>3.1900472500000001</v>
+          </cell>
+          <cell r="G44">
+            <v>378313</v>
+          </cell>
+          <cell r="H44">
+            <v>0.74486165500000001</v>
+          </cell>
+          <cell r="I44">
+            <v>455475</v>
+          </cell>
+          <cell r="J44">
+            <v>0.86059162099999997</v>
+          </cell>
+          <cell r="K44">
+            <v>455475</v>
+          </cell>
+          <cell r="L44">
+            <v>0.83455943700000002</v>
+          </cell>
+          <cell r="M44">
+            <v>-0.86361489199999997</v>
+          </cell>
+          <cell r="N44">
+            <v>-2.4446032039999999</v>
+          </cell>
+          <cell r="O44">
+            <v>-2.807252836</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>2500-EAG-3</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>Polder Groot Wilnis Vinkeveen, Kleine plas</v>
+          </cell>
+          <cell r="C45">
+            <v>586800</v>
+          </cell>
+          <cell r="D45">
+            <v>-1928160.8289999999</v>
+          </cell>
+          <cell r="E45">
+            <v>455408</v>
+          </cell>
+          <cell r="F45">
+            <v>3.1900472500000001</v>
+          </cell>
+          <cell r="G45">
+            <v>378249</v>
+          </cell>
+          <cell r="H45">
+            <v>0.744829501</v>
+          </cell>
+          <cell r="I45">
+            <v>455411</v>
+          </cell>
+          <cell r="J45">
+            <v>0.86057476099999997</v>
+          </cell>
+          <cell r="K45">
+            <v>455411</v>
+          </cell>
+          <cell r="L45">
+            <v>0.83454003399999999</v>
+          </cell>
+          <cell r="M45">
+            <v>-0.86370433499999999</v>
+          </cell>
+          <cell r="N45">
+            <v>-2.4447536460000001</v>
+          </cell>
+          <cell r="O45">
+            <v>-2.8073422429999999</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Vinkeveense Noordplas</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Vinkeveense Noordplas1</v>
+          </cell>
+          <cell r="C46">
+            <v>8817550</v>
+          </cell>
+          <cell r="D46">
+            <v>-70613429.200000003</v>
+          </cell>
+          <cell r="E46">
+            <v>6568058</v>
+          </cell>
+          <cell r="F46">
+            <v>5.7904608480000004</v>
+          </cell>
+          <cell r="G46">
+            <v>3011818</v>
+          </cell>
+          <cell r="H46">
+            <v>0.66390010200000005</v>
+          </cell>
+          <cell r="I46">
+            <v>5682144</v>
+          </cell>
+          <cell r="J46">
+            <v>0.92547734500000001</v>
+          </cell>
+          <cell r="K46">
+            <v>6568058</v>
+          </cell>
+          <cell r="L46">
+            <v>0.972701221</v>
+          </cell>
+          <cell r="M46">
+            <v>-0.81282062499999996</v>
+          </cell>
+          <cell r="N46">
+            <v>-2.8174471369999998</v>
+          </cell>
+          <cell r="O46">
+            <v>-3.4581138600000001</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>2500-EAG-5</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>Polder Groot Wilnis Vinkeveen, Noordplas</v>
+          </cell>
+          <cell r="C47">
+            <v>5742756</v>
+          </cell>
+          <cell r="D47">
+            <v>-58869835.579999998</v>
+          </cell>
+          <cell r="E47">
+            <v>4012969</v>
+          </cell>
+          <cell r="F47">
+            <v>6.0664828960000001</v>
+          </cell>
+          <cell r="G47">
+            <v>1512259</v>
+          </cell>
+          <cell r="H47">
+            <v>0.67496496299999997</v>
+          </cell>
+          <cell r="I47">
+            <v>3245786</v>
+          </cell>
+          <cell r="J47">
+            <v>0.88869643799999998</v>
+          </cell>
+          <cell r="K47">
+            <v>4012970</v>
+          </cell>
+          <cell r="L47">
+            <v>0.98946835799999999</v>
+          </cell>
+          <cell r="M47">
+            <v>-0.89362223100000004</v>
+          </cell>
+          <cell r="N47">
+            <v>-3.205385637</v>
+          </cell>
+          <cell r="O47">
+            <v>-3.7686190119999998</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>2500-EAG-4</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Polder Groot Wilnis Vinkeveen, Zuidplas</v>
+          </cell>
+          <cell r="C48">
+            <v>3074794</v>
+          </cell>
+          <cell r="D48">
+            <v>-11743593.619999999</v>
+          </cell>
+          <cell r="E48">
+            <v>2564674</v>
+          </cell>
+          <cell r="F48">
+            <v>5.7904608480000004</v>
+          </cell>
+          <cell r="G48">
+            <v>1499559</v>
+          </cell>
+          <cell r="H48">
+            <v>0.65310295500000004</v>
+          </cell>
+          <cell r="I48">
+            <v>2436358</v>
+          </cell>
+          <cell r="J48">
+            <v>0.97948371599999995</v>
+          </cell>
+          <cell r="K48">
+            <v>2564674</v>
+          </cell>
+          <cell r="L48">
+            <v>0.95103917500000001</v>
+          </cell>
+          <cell r="M48">
+            <v>-0.69658993400000002</v>
+          </cell>
+          <cell r="N48">
+            <v>-2.5599149699999999</v>
+          </cell>
+          <cell r="O48">
+            <v>-3.0295876970000002</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Vuntus</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>Vuntus</v>
+          </cell>
+          <cell r="C49">
+            <v>980248</v>
+          </cell>
+          <cell r="D49">
+            <v>-1254170.4779999999</v>
+          </cell>
+          <cell r="E49">
+            <v>417655</v>
+          </cell>
+          <cell r="F49">
+            <v>1.173087284</v>
+          </cell>
+          <cell r="G49">
+            <v>417657</v>
+          </cell>
+          <cell r="H49">
+            <v>0.42607278999999998</v>
+          </cell>
+          <cell r="I49">
+            <v>417657</v>
+          </cell>
+          <cell r="J49">
+            <v>0.42607278999999998</v>
+          </cell>
+          <cell r="K49">
+            <v>417657</v>
+          </cell>
+          <cell r="L49">
+            <v>0.42607278999999998</v>
+          </cell>
+          <cell r="M49">
+            <v>-0.64302504400000005</v>
+          </cell>
+          <cell r="N49">
+            <v>-0.95139948500000004</v>
+          </cell>
+          <cell r="O49">
+            <v>-1.2926973260000001</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>3300-EAG-8</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>Muyeveld, Vuntus</v>
+          </cell>
+          <cell r="C50">
+            <v>798147</v>
+          </cell>
+          <cell r="D50">
+            <v>-1113033.3740000001</v>
+          </cell>
+          <cell r="E50">
+            <v>235581</v>
+          </cell>
+          <cell r="F50">
+            <v>1.173087284</v>
+          </cell>
+          <cell r="G50">
+            <v>235583</v>
+          </cell>
+          <cell r="H50">
+            <v>0.29516241999999998</v>
+          </cell>
+          <cell r="I50">
+            <v>235583</v>
+          </cell>
+          <cell r="J50">
+            <v>0.29516241999999998</v>
+          </cell>
+          <cell r="K50">
+            <v>235583</v>
+          </cell>
+          <cell r="L50">
+            <v>0.29516241999999998</v>
+          </cell>
+          <cell r="M50">
+            <v>-0.76419213200000002</v>
+          </cell>
+          <cell r="N50">
+            <v>-1.1801726260000001</v>
+          </cell>
+          <cell r="O50">
+            <v>-1.433074371</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Vuntus - grid oud</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>Vuntus1</v>
+          </cell>
+          <cell r="C51">
+            <v>980248</v>
+          </cell>
+          <cell r="D51">
+            <v>-1254170.4779999999</v>
+          </cell>
+          <cell r="E51">
+            <v>417655</v>
+          </cell>
+          <cell r="F51">
+            <v>1.173087284</v>
+          </cell>
+          <cell r="G51">
+            <v>417657</v>
+          </cell>
+          <cell r="H51">
+            <v>0.42607278999999998</v>
+          </cell>
+          <cell r="I51">
+            <v>417657</v>
+          </cell>
+          <cell r="J51">
+            <v>0.42607278999999998</v>
+          </cell>
+          <cell r="K51">
+            <v>417657</v>
+          </cell>
+          <cell r="L51">
+            <v>0.42607278999999998</v>
+          </cell>
+          <cell r="M51">
+            <v>-0.64302504400000005</v>
+          </cell>
+          <cell r="N51">
+            <v>-0.95139948500000004</v>
+          </cell>
+          <cell r="O51">
+            <v>-1.2926973260000001</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>3300-EAG-8</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>Muyeveld, Vuntus</v>
+          </cell>
+          <cell r="C52">
+            <v>798147</v>
+          </cell>
+          <cell r="D52">
+            <v>-1113033.3740000001</v>
+          </cell>
+          <cell r="E52">
+            <v>235581</v>
+          </cell>
+          <cell r="F52">
+            <v>1.173087284</v>
+          </cell>
+          <cell r="G52">
+            <v>235583</v>
+          </cell>
+          <cell r="H52">
+            <v>0.29516241999999998</v>
+          </cell>
+          <cell r="I52">
+            <v>235583</v>
+          </cell>
+          <cell r="J52">
+            <v>0.29516241999999998</v>
+          </cell>
+          <cell r="K52">
+            <v>235583</v>
+          </cell>
+          <cell r="L52">
+            <v>0.29516241999999998</v>
+          </cell>
+          <cell r="M52">
+            <v>-0.76419213200000002</v>
+          </cell>
+          <cell r="N52">
+            <v>-1.1801726260000001</v>
+          </cell>
+          <cell r="O52">
+            <v>-1.433074371</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Waterleidingplas</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>Waterleidingplas1</v>
+          </cell>
+          <cell r="C53">
+            <v>1224104</v>
+          </cell>
+          <cell r="D53">
+            <v>-6839851.9699999997</v>
+          </cell>
+          <cell r="E53">
+            <v>768787</v>
+          </cell>
+          <cell r="F53">
+            <v>6.3691068319999999</v>
+          </cell>
+          <cell r="G53">
+            <v>163357</v>
+          </cell>
+          <cell r="H53">
+            <v>0.60789881099999998</v>
+          </cell>
+          <cell r="I53">
+            <v>376730</v>
+          </cell>
+          <cell r="J53">
+            <v>0.83954342500000001</v>
+          </cell>
+          <cell r="K53">
+            <v>768792</v>
+          </cell>
+          <cell r="L53">
+            <v>0.85616539000000003</v>
+          </cell>
+          <cell r="M53">
+            <v>-1.4568097229999999</v>
+          </cell>
+          <cell r="N53">
+            <v>-3.9438375470000002</v>
+          </cell>
+          <cell r="O53">
+            <v>-5.5192682739999999</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>3310-EAG-2</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>Loenderveen (GWA), Waterleidingplas</v>
+          </cell>
+          <cell r="C54">
+            <v>1224104</v>
+          </cell>
+          <cell r="D54">
+            <v>-6839851.9699999997</v>
+          </cell>
+          <cell r="E54">
+            <v>768787</v>
+          </cell>
+          <cell r="F54">
+            <v>6.3691068319999999</v>
+          </cell>
+          <cell r="G54">
+            <v>163357</v>
+          </cell>
+          <cell r="H54">
+            <v>0.60789881099999998</v>
+          </cell>
+          <cell r="I54">
+            <v>376730</v>
+          </cell>
+          <cell r="J54">
+            <v>0.83954342500000001</v>
+          </cell>
+          <cell r="K54">
+            <v>768792</v>
+          </cell>
+          <cell r="L54">
+            <v>0.85616539000000003</v>
+          </cell>
+          <cell r="M54">
+            <v>-1.4568097229999999</v>
+          </cell>
+          <cell r="N54">
+            <v>-3.9438375470000002</v>
+          </cell>
+          <cell r="O54">
+            <v>-5.5192682739999999</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Wijde Blik</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>Wijde Blik1</v>
+          </cell>
+          <cell r="C55">
+            <v>2712900</v>
+          </cell>
+          <cell r="D55">
+            <v>-33454836.440000001</v>
+          </cell>
+          <cell r="E55">
+            <v>920742</v>
+          </cell>
+          <cell r="F55">
+            <v>3.6567053450000002</v>
+          </cell>
+          <cell r="G55">
+            <v>880696</v>
+          </cell>
+          <cell r="H55">
+            <v>0.96455541199999995</v>
+          </cell>
+          <cell r="I55">
+            <v>920742</v>
+          </cell>
+          <cell r="J55">
+            <v>0.96228680799999999</v>
+          </cell>
+          <cell r="K55">
+            <v>920742</v>
+          </cell>
+          <cell r="L55">
+            <v>0.85544661499999997</v>
+          </cell>
+          <cell r="M55">
+            <v>-1.0739456039999999</v>
+          </cell>
+          <cell r="N55">
+            <v>-2.726736007</v>
+          </cell>
+          <cell r="O55">
+            <v>-12.368172230000001</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>3230-EAG-2</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>Polder Kortenhoef, Wijde Blik</v>
+          </cell>
+          <cell r="C56">
+            <v>2712900</v>
+          </cell>
+          <cell r="D56">
+            <v>-33454836.440000001</v>
+          </cell>
+          <cell r="E56">
+            <v>920742</v>
+          </cell>
+          <cell r="F56">
+            <v>3.6567053450000002</v>
+          </cell>
+          <cell r="G56">
+            <v>880696</v>
+          </cell>
+          <cell r="H56">
+            <v>0.96455541199999995</v>
+          </cell>
+          <cell r="I56">
+            <v>920742</v>
+          </cell>
+          <cell r="J56">
+            <v>0.96228680799999999</v>
+          </cell>
+          <cell r="K56">
+            <v>920742</v>
+          </cell>
+          <cell r="L56">
+            <v>0.85544661499999997</v>
+          </cell>
+          <cell r="M56">
+            <v>-1.0739456039999999</v>
+          </cell>
+          <cell r="N56">
+            <v>-2.726736007</v>
+          </cell>
+          <cell r="O56">
+            <v>-12.368172230000001</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Wilgenplas</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>Wilgenplas</v>
+          </cell>
+          <cell r="C57">
+            <v>179218</v>
+          </cell>
+          <cell r="D57">
+            <v>-384186.0515</v>
+          </cell>
+          <cell r="E57">
+            <v>0</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>NA</v>
+          </cell>
+          <cell r="G57">
+            <v>145620</v>
+          </cell>
+          <cell r="H57">
+            <v>0.91007380800000004</v>
+          </cell>
+          <cell r="I57">
+            <v>166055</v>
+          </cell>
+          <cell r="J57">
+            <v>0.98608067700000002</v>
+          </cell>
+          <cell r="K57">
+            <v>177366</v>
+          </cell>
+          <cell r="L57">
+            <v>0.99329648400000004</v>
+          </cell>
+          <cell r="M57">
+            <v>-0.80515984200000001</v>
+          </cell>
+          <cell r="N57">
+            <v>-1.397102772</v>
+          </cell>
+          <cell r="O57">
+            <v>-1.731583678</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5472,7 +8137,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{203483FC-69E1-4340-97D8-8046B43E1A5E}" name="Draaitabel1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{203483FC-69E1-4340-97D8-8046B43E1A5E}" name="Draaitabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5946,10 +8611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K329"/>
+  <dimension ref="A1:M329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M333" sqref="M333"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,11 +8627,11 @@
     <col min="7" max="7" width="18.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="4"/>
     <col min="9" max="9" width="10.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>555</v>
       </c>
@@ -6000,8 +8665,14 @@
       <c r="K1" s="7" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -6028,7 +8699,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -6049,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -6069,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1155</v>
       </c>
@@ -6096,7 +8767,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -6116,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>1156</v>
       </c>
@@ -6143,7 +8814,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -6164,7 +8835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
@@ -6185,7 +8856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -6205,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>1157</v>
       </c>
@@ -6235,7 +8906,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
@@ -6255,7 +8926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>1158</v>
       </c>
@@ -6281,7 +8952,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
@@ -6302,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>1159</v>
       </c>
@@ -6331,7 +9002,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>8</v>
       </c>
@@ -6351,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>10</v>
       </c>
@@ -6377,8 +9048,11 @@
       <c r="K17" s="4" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>11</v>
       </c>
@@ -6405,7 +9079,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>12</v>
       </c>
@@ -6426,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
@@ -6446,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>1160</v>
       </c>
@@ -6473,7 +9147,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>14</v>
       </c>
@@ -6493,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>1161</v>
       </c>
@@ -6520,7 +9194,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>15</v>
       </c>
@@ -6541,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>16</v>
       </c>
@@ -6568,7 +9242,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>1104</v>
       </c>
@@ -6586,7 +9260,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>1101</v>
       </c>
@@ -6604,7 +9278,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>608</v>
       </c>
@@ -6633,8 +9307,15 @@
       <c r="K28" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="4">
+        <v>791.77494365507675</v>
+      </c>
+      <c r="M28" s="4">
+        <f>VLOOKUP(F28,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-13.20554368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>17</v>
       </c>
@@ -6658,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
@@ -6688,7 +9369,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>19</v>
       </c>
@@ -6715,7 +9396,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>556</v>
       </c>
@@ -6743,6 +9424,13 @@
       </c>
       <c r="K32" s="4" t="s">
         <v>508</v>
+      </c>
+      <c r="L32" s="4">
+        <v>854.8691907537667</v>
+      </c>
+      <c r="M32" s="4">
+        <f>VLOOKUP(F32,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-13.591314069999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7386,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>1164</v>
       </c>
@@ -7413,7 +10101,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>1049</v>
       </c>
@@ -7425,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>36</v>
       </c>
@@ -7440,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>1046</v>
       </c>
@@ -7460,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>1165</v>
       </c>
@@ -7487,7 +10175,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>37</v>
       </c>
@@ -7508,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>38</v>
       </c>
@@ -7526,7 +10214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>1038</v>
       </c>
@@ -7546,7 +10234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>1166</v>
       </c>
@@ -7576,7 +10264,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>1035</v>
       </c>
@@ -7588,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>39</v>
       </c>
@@ -7608,7 +10296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>1167</v>
       </c>
@@ -7635,7 +10323,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>40</v>
       </c>
@@ -7665,7 +10353,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>41</v>
       </c>
@@ -7694,8 +10382,15 @@
       <c r="K78" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="4">
+        <v>783.7996264990179</v>
+      </c>
+      <c r="M78" s="4">
+        <f>VLOOKUP(F78,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-2.8073422429999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>41</v>
       </c>
@@ -7724,8 +10419,15 @@
       <c r="K79" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="4">
+        <v>1797.2593304807183</v>
+      </c>
+      <c r="M79" s="4">
+        <f>VLOOKUP(F79,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-3.0295876970000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>41</v>
       </c>
@@ -7753,6 +10455,13 @@
       </c>
       <c r="K80" s="4" t="s">
         <v>508</v>
+      </c>
+      <c r="L80" s="4">
+        <v>2507.1862066866911</v>
+      </c>
+      <c r="M80" s="4">
+        <f>VLOOKUP(F80,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-3.7686190119999998</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -8138,7 +10847,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>55</v>
       </c>
@@ -8165,7 +10874,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>56</v>
       </c>
@@ -8192,7 +10901,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>57</v>
       </c>
@@ -8219,7 +10928,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>1170</v>
       </c>
@@ -8249,7 +10958,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>58</v>
       </c>
@@ -8269,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>59</v>
       </c>
@@ -8289,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>1171</v>
       </c>
@@ -8316,7 +11025,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>1171</v>
       </c>
@@ -8343,7 +11052,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>60</v>
       </c>
@@ -8364,7 +11073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>1172</v>
       </c>
@@ -8391,7 +11100,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>61</v>
       </c>
@@ -8415,7 +11124,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>1173</v>
       </c>
@@ -8439,7 +11148,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>62</v>
       </c>
@@ -8460,7 +11169,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>1174</v>
       </c>
@@ -8486,7 +11195,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>605</v>
       </c>
@@ -8498,8 +11207,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
         <v>1175</v>
       </c>
       <c r="B112" s="16" t="s">
@@ -8527,8 +11236,15 @@
       <c r="K112" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="4">
+        <v>311.36273433087655</v>
+      </c>
+      <c r="M112" s="4">
+        <f>VLOOKUP(F112,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.6422614769999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>63</v>
       </c>
@@ -8549,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>64</v>
       </c>
@@ -8570,7 +11286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>1176</v>
       </c>
@@ -8596,8 +11312,14 @@
       <c r="K115" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="4">
+        <v>311.36273433087655</v>
+      </c>
+      <c r="M115" s="4">
+        <v>-1.64226147711713</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>65</v>
       </c>
@@ -8617,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>1177</v>
       </c>
@@ -8644,7 +11366,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>66</v>
       </c>
@@ -8665,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>67</v>
       </c>
@@ -8692,7 +11414,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>68</v>
       </c>
@@ -8713,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>589</v>
       </c>
@@ -8743,7 +11465,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>69</v>
       </c>
@@ -8764,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>70</v>
       </c>
@@ -8784,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>1178</v>
       </c>
@@ -8811,7 +11533,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>71</v>
       </c>
@@ -8833,7 +11555,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>72</v>
       </c>
@@ -8854,7 +11576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>590</v>
       </c>
@@ -8875,7 +11597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>1179</v>
       </c>
@@ -9290,7 +12012,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>85</v>
       </c>
@@ -9316,8 +12038,11 @@
       <c r="K145" s="4" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="4">
+        <v>1594510</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>86</v>
       </c>
@@ -9343,8 +12068,11 @@
       <c r="K146" s="4" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="4">
+        <v>871799</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>87</v>
       </c>
@@ -9371,7 +12099,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>88</v>
       </c>
@@ -9392,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>89</v>
       </c>
@@ -9418,8 +12146,14 @@
       <c r="K149" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="4">
+        <v>1598.3443727807849</v>
+      </c>
+      <c r="M149" s="4">
+        <v>-16.794208659999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>90</v>
       </c>
@@ -9440,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>91</v>
       </c>
@@ -9466,8 +12200,15 @@
       <c r="K151" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="4">
+        <v>992.48436294986539</v>
+      </c>
+      <c r="M151" s="4">
+        <f>VLOOKUP(F151,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.087510771</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>92</v>
       </c>
@@ -9491,7 +12232,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>92</v>
       </c>
@@ -9515,7 +12256,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>93</v>
       </c>
@@ -9536,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>94</v>
       </c>
@@ -9562,8 +12303,14 @@
       <c r="K155" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" s="4">
+        <v>526.99610615259769</v>
+      </c>
+      <c r="M155" s="4">
+        <v>-1.0702154109999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>95</v>
       </c>
@@ -9584,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>96</v>
       </c>
@@ -9611,7 +12358,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>97</v>
       </c>
@@ -9638,7 +12385,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>592</v>
       </c>
@@ -9653,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>593</v>
       </c>
@@ -9668,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>99</v>
       </c>
@@ -9695,7 +12442,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>98</v>
       </c>
@@ -9722,7 +12469,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>110</v>
       </c>
@@ -9751,8 +12498,11 @@
       <c r="K163" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163" s="4">
+        <v>509.02196298391681</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>100</v>
       </c>
@@ -9773,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>101</v>
       </c>
@@ -9802,8 +12552,15 @@
       <c r="K165" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165" s="4">
+        <v>673.01320707694879</v>
+      </c>
+      <c r="M165" s="4">
+        <f>VLOOKUP(F165,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.0851886129999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>102</v>
       </c>
@@ -9824,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>103</v>
       </c>
@@ -9853,8 +12610,15 @@
       <c r="K167" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167" s="4">
+        <v>1711.9559801583684</v>
+      </c>
+      <c r="M167" s="4">
+        <f>VLOOKUP(F167,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-2.4685364349999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>104</v>
       </c>
@@ -9875,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>105</v>
       </c>
@@ -9904,8 +12668,15 @@
       <c r="K169" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169" s="4">
+        <v>1053.277941476038</v>
+      </c>
+      <c r="M169" s="4">
+        <f>VLOOKUP(F169,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-0.93115156700000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>107</v>
       </c>
@@ -9932,7 +12703,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>106</v>
       </c>
@@ -9953,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>108</v>
       </c>
@@ -9973,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>109</v>
       </c>
@@ -9999,8 +12770,14 @@
       <c r="K173" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173" s="4">
+        <v>1053.277941476038</v>
+      </c>
+      <c r="M173" s="4">
+        <v>-0.98439878000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>111</v>
       </c>
@@ -10027,7 +12804,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>112</v>
       </c>
@@ -10054,7 +12831,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
         <v>1182</v>
       </c>
@@ -10072,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
         <v>1183</v>
       </c>
@@ -10099,7 +12876,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>1184</v>
       </c>
@@ -10126,7 +12903,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
         <v>1185</v>
       </c>
@@ -10144,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
         <v>1186</v>
       </c>
@@ -10171,7 +12948,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
         <v>1187</v>
       </c>
@@ -10198,7 +12975,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
         <v>1188</v>
       </c>
@@ -10222,7 +12999,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>1189</v>
       </c>
@@ -10246,7 +13023,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>113</v>
       </c>
@@ -10266,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>113</v>
       </c>
@@ -10286,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>1190</v>
       </c>
@@ -10303,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
         <v>1191</v>
       </c>
@@ -10331,8 +13108,14 @@
       <c r="K187" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187" s="4">
+        <v>1366.5019140125637</v>
+      </c>
+      <c r="M187" s="4">
+        <v>-1.433074371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
         <v>1191</v>
       </c>
@@ -10358,7 +13141,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
         <v>114</v>
       </c>
@@ -10378,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
         <v>1192</v>
       </c>
@@ -10407,8 +13190,15 @@
       <c r="K190" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190" s="4">
+        <v>458.80083838197157</v>
+      </c>
+      <c r="M190" s="4">
+        <f>VLOOKUP(F190,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-0.88376249500000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>1192</v>
       </c>
@@ -10437,8 +13227,15 @@
       <c r="K191" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191" s="4">
+        <v>496.62613372636764</v>
+      </c>
+      <c r="M191" s="4">
+        <f>VLOOKUP(F191,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-0.69758297599999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>115</v>
       </c>
@@ -10458,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>1193</v>
       </c>
@@ -10487,8 +13284,15 @@
       <c r="K193" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193" s="4">
+        <v>979.25166157632839</v>
+      </c>
+      <c r="M193" s="4">
+        <f>VLOOKUP(F193,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.433074371</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
         <v>1193</v>
       </c>
@@ -10518,7 +13322,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="15" t="s">
         <v>116</v>
       </c>
@@ -10535,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>116</v>
       </c>
@@ -10552,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>116</v>
       </c>
@@ -10569,7 +13373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>117</v>
       </c>
@@ -10590,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>594</v>
       </c>
@@ -10603,6 +13407,9 @@
       <c r="D199" s="4">
         <v>1</v>
       </c>
+      <c r="E199" s="4">
+        <v>3300</v>
+      </c>
       <c r="G199" s="4" t="s">
         <v>512</v>
       </c>
@@ -10615,8 +13422,14 @@
       <c r="K199" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199">
+        <v>3132.1480036869266</v>
+      </c>
+      <c r="M199" s="4">
+        <v>-2.2288161390000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
         <v>594</v>
       </c>
@@ -10629,6 +13442,9 @@
       <c r="D200" s="4">
         <v>1</v>
       </c>
+      <c r="E200" s="4">
+        <v>3300</v>
+      </c>
       <c r="G200" s="4" t="s">
         <v>512</v>
       </c>
@@ -10641,8 +13457,14 @@
       <c r="K200" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200">
+        <v>3132.1480036869266</v>
+      </c>
+      <c r="M200" s="4">
+        <v>-2.2288161390000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
         <v>595</v>
       </c>
@@ -10659,7 +13481,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>118</v>
       </c>
@@ -10686,7 +13508,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>119</v>
       </c>
@@ -10713,7 +13535,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>121</v>
       </c>
@@ -10734,7 +13556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>122</v>
       </c>
@@ -10755,7 +13577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>120</v>
       </c>
@@ -10775,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>1194</v>
       </c>
@@ -10805,7 +13627,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
         <v>123</v>
       </c>
@@ -10832,7 +13654,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>124</v>
       </c>
@@ -10859,7 +13681,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
         <v>125</v>
       </c>
@@ -10886,7 +13708,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
         <v>126</v>
       </c>
@@ -10913,7 +13735,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>127</v>
       </c>
@@ -10940,7 +13762,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>128</v>
       </c>
@@ -10969,8 +13791,11 @@
       <c r="K213" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213" s="4">
+        <v>570.58101659624117</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>129</v>
       </c>
@@ -10991,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
         <v>537</v>
       </c>
@@ -11020,8 +13845,15 @@
       <c r="K215" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215" s="4">
+        <v>779.91441722794173</v>
+      </c>
+      <c r="M215" s="4">
+        <f>VLOOKUP(F215,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-11.37671321</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>606</v>
       </c>
@@ -11038,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>130</v>
       </c>
@@ -11058,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
         <v>1195</v>
       </c>
@@ -11084,8 +13916,11 @@
       <c r="K218" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218" s="4">
+        <v>207469</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
         <v>131</v>
       </c>
@@ -11114,8 +13949,11 @@
       <c r="K219" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219" s="4">
+        <v>299534</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
         <v>132</v>
       </c>
@@ -11144,8 +13982,11 @@
       <c r="K220" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220" s="4">
+        <v>357.08070152277901</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
         <v>133</v>
       </c>
@@ -11172,7 +14013,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
         <v>134</v>
       </c>
@@ -11193,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>1196</v>
       </c>
@@ -11221,8 +14062,11 @@
       <c r="K223" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223" s="4">
+        <v>715.86623855298558</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>135</v>
       </c>
@@ -11242,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>136</v>
       </c>
@@ -11263,7 +14107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
         <v>1197</v>
       </c>
@@ -11292,8 +14136,11 @@
       <c r="K226" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226" s="4">
+        <v>2573034</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
         <v>137</v>
       </c>
@@ -11313,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
         <v>138</v>
       </c>
@@ -11340,7 +14187,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
         <v>139</v>
       </c>
@@ -11361,7 +14208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
         <v>140</v>
       </c>
@@ -11388,7 +14235,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
         <v>141</v>
       </c>
@@ -11415,7 +14262,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
         <v>142</v>
       </c>
@@ -11441,8 +14288,11 @@
       <c r="K232" s="4" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232" s="4">
+        <v>601.80199202063136</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
         <v>143</v>
       </c>
@@ -11469,7 +14319,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
         <v>144</v>
       </c>
@@ -11496,7 +14346,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="15" t="s">
         <v>145</v>
       </c>
@@ -11516,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
         <v>1198</v>
       </c>
@@ -11543,7 +14393,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="15" t="s">
         <v>146</v>
       </c>
@@ -11570,7 +14420,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
         <v>147</v>
       </c>
@@ -11596,8 +14446,15 @@
       <c r="K238" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238" s="4">
+        <v>462.77423329308215</v>
+      </c>
+      <c r="M238" s="4">
+        <f>VLOOKUP(F238,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-10.07659836</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
         <v>148</v>
       </c>
@@ -11624,7 +14481,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
         <v>149</v>
       </c>
@@ -11651,7 +14508,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
         <v>150</v>
       </c>
@@ -11678,7 +14535,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>156</v>
       </c>
@@ -11699,7 +14556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>151</v>
       </c>
@@ -11717,7 +14574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>152</v>
       </c>
@@ -11735,7 +14592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>153</v>
       </c>
@@ -11758,7 +14615,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
         <v>154</v>
       </c>
@@ -11779,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
         <v>155</v>
       </c>
@@ -11806,7 +14663,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
         <v>157</v>
       </c>
@@ -11833,7 +14690,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
         <v>158</v>
       </c>
@@ -11854,7 +14711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
         <v>159</v>
       </c>
@@ -11881,7 +14738,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
         <v>160</v>
       </c>
@@ -11908,7 +14765,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="15" t="s">
         <v>161</v>
       </c>
@@ -11935,7 +14792,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
         <v>162</v>
       </c>
@@ -11962,7 +14819,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
         <v>163</v>
       </c>
@@ -11989,7 +14846,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
         <v>164</v>
       </c>
@@ -12016,7 +14873,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
         <v>166</v>
       </c>
@@ -12045,8 +14902,11 @@
       <c r="K256" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256" s="4">
+        <v>163.38977718939458</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
         <v>165</v>
       </c>
@@ -12064,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="s">
         <v>1235</v>
       </c>
@@ -12093,8 +14953,11 @@
       <c r="K258" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258" s="4">
+        <v>163.38977718939458</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="s">
         <v>1235</v>
       </c>
@@ -12123,8 +14986,15 @@
       <c r="K259" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259" s="4">
+        <v>439.74649685927005</v>
+      </c>
+      <c r="M259" s="4">
+        <f>VLOOKUP(F259,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.167752117</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="s">
         <v>1235</v>
       </c>
@@ -12153,8 +15023,15 @@
       <c r="K260" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260" s="4">
+        <v>850.47579483486766</v>
+      </c>
+      <c r="M260" s="4">
+        <f>VLOOKUP(F260,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.237261385</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="s">
         <v>1235</v>
       </c>
@@ -12183,8 +15060,15 @@
       <c r="K261" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261" s="4">
+        <v>313.40858831563634</v>
+      </c>
+      <c r="M261" s="4">
+        <f>VLOOKUP(F261,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.6799012120000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
         <v>167</v>
       </c>
@@ -12205,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="15" t="s">
         <v>168</v>
       </c>
@@ -12231,8 +15115,15 @@
       <c r="K263" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263" s="4">
+        <v>439.74649685927005</v>
+      </c>
+      <c r="M263" s="4">
+        <f>VLOOKUP(F263,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.167752117</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
         <v>169</v>
       </c>
@@ -12253,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
         <v>170</v>
       </c>
@@ -12279,8 +15170,15 @@
       <c r="K265" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265" s="4">
+        <v>850.47579483486766</v>
+      </c>
+      <c r="M265" s="4">
+        <f>VLOOKUP(F265,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.237261385</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
         <v>171</v>
       </c>
@@ -12301,7 +15199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="15" t="s">
         <v>172</v>
       </c>
@@ -12329,7 +15227,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
         <v>173</v>
       </c>
@@ -12350,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="15" t="s">
         <v>174</v>
       </c>
@@ -12376,8 +15274,15 @@
       <c r="K269" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269" s="4">
+        <v>313.40858831563634</v>
+      </c>
+      <c r="M269" s="4">
+        <f>VLOOKUP(F269,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.6799012120000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
         <v>175</v>
       </c>
@@ -12404,7 +15309,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
         <v>176</v>
       </c>
@@ -12431,7 +15336,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
         <v>177</v>
       </c>
@@ -12830,7 +15735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="15" t="s">
         <v>597</v>
       </c>
@@ -12845,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="15" t="s">
         <v>598</v>
       </c>
@@ -12866,7 +15771,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="15" t="s">
         <v>193</v>
       </c>
@@ -12893,7 +15798,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="15" t="s">
         <v>194</v>
       </c>
@@ -12920,7 +15825,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
         <v>197</v>
       </c>
@@ -12947,7 +15852,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
         <v>195</v>
       </c>
@@ -12968,7 +15873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="15" t="s">
         <v>196</v>
       </c>
@@ -12995,7 +15900,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="15" t="s">
         <v>198</v>
       </c>
@@ -13022,7 +15927,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="15" t="s">
         <v>199</v>
       </c>
@@ -13049,7 +15954,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
         <v>200</v>
       </c>
@@ -13076,7 +15981,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="15" t="s">
         <v>201</v>
       </c>
@@ -13103,7 +16008,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="15" t="s">
         <v>202</v>
       </c>
@@ -13130,7 +16035,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="15" t="s">
         <v>203</v>
       </c>
@@ -13157,7 +16062,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="15" t="s">
         <v>204</v>
       </c>
@@ -13178,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="15" t="s">
         <v>205</v>
       </c>
@@ -13204,8 +16109,14 @@
       <c r="K303" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L303" s="4">
+        <v>948.61679555023693</v>
+      </c>
+      <c r="M303" s="23">
+        <v>-15.980524239999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
         <v>206</v>
       </c>
@@ -13232,7 +16143,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="15" t="s">
         <v>207</v>
       </c>
@@ -13259,7 +16170,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="15" t="s">
         <v>599</v>
       </c>
@@ -13274,7 +16185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="15" t="s">
         <v>208</v>
       </c>
@@ -13300,8 +16211,14 @@
       <c r="K307" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L307">
+        <v>3132.1480036869266</v>
+      </c>
+      <c r="M307" s="23">
+        <v>-2.2288161390000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="15" t="s">
         <v>600</v>
       </c>
@@ -13316,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="15" t="s">
         <v>588</v>
       </c>
@@ -13332,7 +16249,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="15" t="s">
         <v>1248</v>
       </c>
@@ -13361,8 +16278,15 @@
       <c r="K310" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L310" s="4">
+        <v>992.48436294986539</v>
+      </c>
+      <c r="M310" s="4">
+        <f>VLOOKUP(F310,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.087510771</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="15" t="s">
         <v>1248</v>
       </c>
@@ -13391,8 +16315,14 @@
       <c r="K311" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L311" s="4">
+        <v>526.99610615259769</v>
+      </c>
+      <c r="M311" s="4">
+        <v>-1.087510771</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="21" t="s">
         <v>1236</v>
       </c>
@@ -13421,8 +16351,11 @@
       <c r="K312" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L312" s="4">
+        <v>163.38977718939458</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="21" t="s">
         <v>1236</v>
       </c>
@@ -13451,8 +16384,15 @@
       <c r="K313" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L313" s="4">
+        <v>439.74649685927005</v>
+      </c>
+      <c r="M313" s="4">
+        <f>VLOOKUP(F313,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.167752117</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="21" t="s">
         <v>1236</v>
       </c>
@@ -13481,8 +16421,15 @@
       <c r="K314" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L314" s="4">
+        <v>850.47579483486766</v>
+      </c>
+      <c r="M314" s="4">
+        <f>VLOOKUP(F314,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.237261385</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="21" t="s">
         <v>1236</v>
       </c>
@@ -13511,8 +16458,15 @@
       <c r="K315" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L315" s="4">
+        <v>313.40858831563634</v>
+      </c>
+      <c r="M315" s="4">
+        <f>VLOOKUP(F315,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.6799012120000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="s">
         <v>1251</v>
       </c>
@@ -13541,8 +16495,15 @@
       <c r="K316" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L316" s="4">
+        <v>992.48436294986539</v>
+      </c>
+      <c r="M316" s="4">
+        <f>VLOOKUP(F316,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
+        <v>-1.087510771</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="21" t="s">
         <v>1251</v>
       </c>
@@ -13571,8 +16532,14 @@
       <c r="K317" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L317" s="4">
+        <v>526.99610615259769</v>
+      </c>
+      <c r="M317" s="4">
+        <v>-1.087510771</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="16" t="s">
         <v>1175</v>
       </c>
@@ -13601,8 +16568,14 @@
       <c r="K318" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L318" s="4">
+        <v>332.06453363766508</v>
+      </c>
+      <c r="M318" s="23">
+        <v>-1.6422614769999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="16" t="s">
         <v>1175</v>
       </c>
@@ -13631,8 +16604,14 @@
       <c r="K319" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L319" s="4">
+        <v>860.25723565687031</v>
+      </c>
+      <c r="M319" s="23">
+        <v>-1.6422614769999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="16" t="s">
         <v>1241</v>
       </c>
@@ -13651,7 +16630,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="15" t="s">
         <v>1242</v>
       </c>
@@ -13666,7 +16645,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13695,8 +16674,14 @@
       <c r="K322" s="4" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L322" s="4">
+        <v>912.15207120304228</v>
+      </c>
+      <c r="M322" s="23">
+        <v>-0.97782443500000005</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="15" t="s">
         <v>159</v>
       </c>
@@ -13714,7 +16699,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="15" t="s">
         <v>1245</v>
       </c>
@@ -13741,7 +16726,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="16" t="s">
         <v>1191</v>
       </c>
@@ -13768,7 +16753,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="15" t="s">
         <v>1252</v>
       </c>
@@ -13786,7 +16771,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="15" t="s">
         <v>1252</v>
       </c>
@@ -13801,7 +16786,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="15" t="s">
         <v>1253</v>
       </c>
@@ -13821,8 +16806,14 @@
       <c r="K328" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L328" s="4">
+        <v>790.31874006631017</v>
+      </c>
+      <c r="M328" s="4">
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="15" t="s">
         <v>1254</v>
       </c>
@@ -13841,11 +16832,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K325" xr:uid="{AC82A3F7-6F5E-47C7-AAC9-5291EBBF134D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K309">
-      <sortCondition ref="A1:A309"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M329" xr:uid="{DCB81AEA-3879-4B38-8189-D0346B062995}"/>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26326,38 +29313,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
-    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
-    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
-    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
-    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
-      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
-      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
-    </_dlc_DocIdUrl>
-    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -26407,12 +29362,12 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7c1d69d6-3248-424b-85a1-c0d9ad05b603" ContentTypeId="0x0101004F34529632943E4DBB820B36F0ABAA060601" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Algemeen - Word" ma:contentTypeID="0x0101004F34529632943E4DBB820B36F0ABAA0606010086381A6D56669A4DB59F7772448721B1" ma:contentTypeVersion="5" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="8fe95572a7a7878b61abe4cdcaa95a61">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d59e9867-4acc-40d5-91da-91f4047d1695" xmlns:ns3="fbe582d4-4cd9-4e01-adc0-428c7d30a990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b624776c1a3c75443e1a1b758f5efa1" ns2:_="" ns3:_="">
     <xsd:import namespace="d59e9867-4acc-40d5-91da-91f4047d1695"/>
@@ -26712,7 +29667,74 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
+    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
+    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
+    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
+    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
+      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
+      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
+    </_dlc_DocIdUrl>
+    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66FD23B-6941-41A1-8A1A-FC46E735FC7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{743CA991-A91A-4ABA-A663-E5C279512219}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <ds:schemaRef ds:uri="fbe582d4-4cd9-4e01-adc0-428c7d30a990"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D2343-3DBC-4425-9979-C53AF3E8F60A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -26729,45 +29751,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66FD23B-6941-41A1-8A1A-FC46E735FC7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{743CA991-A91A-4ABA-A663-E5C279512219}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <ds:schemaRef ds:uri="fbe582d4-4cd9-4e01-adc0-428c7d30a990"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/pbelasting/input/200218_koppeltabel.xlsx
+++ b/pbelasting/input/200218_koppeltabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moria02\stack\Schoon water\Stand van zake waterkwaliteit\R\WaternetAnalyse\pbelasting\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8EB84C-F5C4-42A6-BF66-9C10A58C5047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3022E21E-CCF7-459A-A89B-5EBB1268E5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namenBalansen201903240706" sheetId="1" r:id="rId1"/>
@@ -8611,10 +8611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8699,7 +8700,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -8767,7 +8768,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -8835,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -8906,7 +8907,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
@@ -8952,7 +8953,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>8</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>12</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
@@ -9147,7 +9148,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>14</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>15</v>
       </c>
@@ -9242,7 +9243,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>1104</v>
       </c>
@@ -9260,7 +9261,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>1101</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>-13.591314069999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>1094</v>
       </c>
@@ -9526,7 +9527,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>23</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>24</v>
       </c>
@@ -9649,7 +9650,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>28</v>
       </c>
@@ -9670,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>29</v>
       </c>
@@ -9745,7 +9746,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>32</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>612</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>1072</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>1068</v>
       </c>
@@ -9834,7 +9835,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>33</v>
       </c>
@@ -9849,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>613</v>
       </c>
@@ -9861,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>1065</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>1063</v>
       </c>
@@ -9917,7 +9918,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>610</v>
       </c>
@@ -9953,7 +9954,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>1059</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>34</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>611</v>
       </c>
@@ -10033,7 +10034,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>1054</v>
       </c>
@@ -10045,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>35</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>609</v>
       </c>
@@ -10101,7 +10102,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>1049</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>36</v>
       </c>
@@ -10128,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>1046</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>37</v>
       </c>
@@ -10196,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>38</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>1038</v>
       </c>
@@ -10264,7 +10265,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>1035</v>
       </c>
@@ -10276,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>39</v>
       </c>
@@ -10464,7 +10465,7 @@
         <v>-3.7686190119999998</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>42</v>
       </c>
@@ -10485,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>43</v>
       </c>
@@ -10505,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>44</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>45</v>
       </c>
@@ -10651,7 +10652,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>47</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>51</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>54</v>
       </c>
@@ -10958,7 +10959,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>58</v>
       </c>
@@ -10978,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>59</v>
       </c>
@@ -11052,7 +11053,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>60</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>1173</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>605</v>
       </c>
@@ -11244,7 +11245,7 @@
         <v>-1.6422614769999999</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>63</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>64</v>
       </c>
@@ -11319,7 +11320,7 @@
         <v>-1.64226147711713</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>65</v>
       </c>
@@ -11366,7 +11367,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>66</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>68</v>
       </c>
@@ -11465,7 +11466,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>69</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>70</v>
       </c>
@@ -11533,7 +11534,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>71</v>
       </c>
@@ -11555,7 +11556,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>72</v>
       </c>
@@ -11576,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>590</v>
       </c>
@@ -11624,7 +11625,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>591</v>
       </c>
@@ -11675,7 +11676,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>73</v>
       </c>
@@ -11696,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>74</v>
       </c>
@@ -11771,7 +11772,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>76</v>
       </c>
@@ -11819,7 +11820,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>78</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>80</v>
       </c>
@@ -11916,7 +11917,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>82</v>
       </c>
@@ -11964,7 +11965,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>84</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
         <v>607</v>
       </c>
@@ -12099,7 +12100,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>88</v>
       </c>
@@ -12153,7 +12154,7 @@
         <v>-16.794208659999999</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>90</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>92</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>92</v>
       </c>
@@ -12256,7 +12257,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>93</v>
       </c>
@@ -12310,7 +12311,7 @@
         <v>-1.0702154109999999</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>95</v>
       </c>
@@ -12385,7 +12386,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>592</v>
       </c>
@@ -12400,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>593</v>
       </c>
@@ -12502,7 +12503,7 @@
         <v>509.02196298391681</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>100</v>
       </c>
@@ -12560,7 +12561,7 @@
         <v>-1.0851886129999999</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>102</v>
       </c>
@@ -12613,12 +12614,11 @@
       <c r="L167" s="4">
         <v>1711.9559801583684</v>
       </c>
-      <c r="M167" s="4">
-        <f>VLOOKUP(F167,[1]dieptelichtstats_rasters2010201!$A$2:$O$57,15,FALSE)</f>
-        <v>-2.4685364349999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M167" s="5">
+        <v>-12.368171999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>104</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>106</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>108</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
         <v>1182</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
         <v>1185</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>113</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>113</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>1190</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
         <v>114</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>-0.69758297599999997</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>115</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="15" t="s">
         <v>116</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>116</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>116</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>117</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
         <v>595</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>121</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>122</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>120</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>570.58101659624117</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>129</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>-11.37671321</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>606</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>130</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
         <v>134</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>715.86623855298558</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>135</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>136</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>2573034</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
         <v>137</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
         <v>139</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="15" t="s">
         <v>145</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>156</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>151</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>152</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>153</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
         <v>154</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
         <v>158</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>163.38977718939458</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
         <v>165</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>-1.6799012120000001</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
         <v>167</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>-1.167752117</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
         <v>169</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>-1.237261385</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
         <v>171</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
         <v>173</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
         <v>178</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
         <v>181</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
         <v>182</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
         <v>184</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
         <v>187</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
         <v>188</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="15" t="s">
         <v>189</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="15" t="s">
         <v>191</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="15" t="s">
         <v>192</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="15" t="s">
         <v>597</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
         <v>195</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="15" t="s">
         <v>204</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="15" t="s">
         <v>599</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="15" t="s">
         <v>600</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="15" t="s">
         <v>588</v>
       </c>
@@ -16832,10 +16832,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M329" xr:uid="{DCB81AEA-3879-4B38-8189-D0346B062995}"/>
+  <autoFilter ref="A1:M329" xr:uid="{DCB81AEA-3879-4B38-8189-D0346B062995}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pbelasting/input/200218_koppeltabel.xlsx
+++ b/pbelasting/input/200218_koppeltabel.xlsx
@@ -34551,7 +34551,7 @@
   <documentManagement>
     <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
     <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
-    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
+    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-177037</_dlc_DocId>
     <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
     <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
     <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
@@ -34561,8 +34561,8 @@
     <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
     <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
     <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
-      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
-      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
+      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-177037</Url>
+      <Description>PNHZET2ZRHHM-1647798991-177037</Description>
     </_dlc_DocIdUrl>
     <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
   </documentManagement>

--- a/pbelasting/input/200218_koppeltabel.xlsx
+++ b/pbelasting/input/200218_koppeltabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moria02\stack\Schoon water\Stand van zake waterkwaliteit\R\WaternetAnalyse\pbelasting\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://waternet.sharepoint.com/sites/0182/Intern/WaternetAnalyse/WaternetAnalyse/pbelasting/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449B0095-CA57-4E37-B0C7-77D97B83990A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{449B0095-CA57-4E37-B0C7-77D97B83990A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{588D3B1B-2D98-488B-8E3F-0F56F7DD0649}"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="1033" yWindow="1033" windowWidth="12787" windowHeight="6587" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namenBalansen201903240706" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -11647,7 +11647,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{203483FC-69E1-4340-97D8-8046B43E1A5E}" name="Draaitabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{203483FC-69E1-4340-97D8-8046B43E1A5E}" name="Draaitabel1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -12127,20 +12127,20 @@
       <selection activeCell="A250" sqref="A250:XFD251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="12" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="12"/>
+    <col min="1" max="1" width="17.17578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.87890625" style="12" customWidth="1"/>
+    <col min="3" max="5" width="9.1171875" style="12"/>
     <col min="6" max="6" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="12"/>
-    <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="12"/>
+    <col min="7" max="7" width="21.87890625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.1171875" style="12"/>
+    <col min="9" max="9" width="10.5859375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.41015625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9.1171875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>552</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2" s="23" t="s">
         <v>1319</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>1142</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>1143</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="13" t="s">
         <v>1144</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="13" t="s">
         <v>1145</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" s="13" t="s">
         <v>1146</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" s="12" t="s">
         <v>12</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" s="13" t="s">
         <v>1147</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" s="13" t="s">
         <v>1148</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>15</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" s="12" t="s">
         <v>16</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" s="13" t="s">
         <v>1091</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" s="13" t="s">
         <v>1088</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" s="12" t="s">
         <v>603</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>-13.20554368</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" s="12" t="s">
         <v>17</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32" s="12" t="s">
         <v>19</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33" s="12" t="s">
         <v>553</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>-13.591314069999999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" s="13" t="s">
         <v>1081</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35" s="12" t="s">
         <v>20</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" s="12" t="s">
         <v>21</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37" s="12" t="s">
         <v>22</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38" s="12" t="s">
         <v>23</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39" s="12" t="s">
         <v>24</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A42" s="12" t="s">
         <v>27</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A43" s="12" t="s">
         <v>28</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A44" s="12" t="s">
         <v>29</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A45" s="12" t="s">
         <v>30</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A46" s="12" t="s">
         <v>31</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A47" s="12" t="s">
         <v>32</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48" s="13" t="s">
         <v>1055</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49" s="13" t="s">
         <v>1149</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50" s="12" t="s">
         <v>33</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A51" s="23" t="s">
         <v>1055</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A52" s="13" t="s">
         <v>1050</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A53" s="13" t="s">
         <v>1150</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A54" s="23" t="s">
         <v>1050</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A55" s="13" t="s">
         <v>1235</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A56" s="12" t="s">
         <v>34</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A57" s="12" t="s">
         <v>605</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A58" s="13" t="s">
         <v>1234</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A59" s="12" t="s">
         <v>35</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A60" s="12" t="s">
         <v>604</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A61" s="13" t="s">
         <v>1151</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A62" s="13" t="s">
         <v>1038</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A63" s="12" t="s">
         <v>36</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A64" s="13" t="s">
         <v>1035</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A65" s="13" t="s">
         <v>1152</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A66" s="12" t="s">
         <v>37</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A67" s="12" t="s">
         <v>38</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A68" s="13" t="s">
         <v>1027</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A69" s="13" t="s">
         <v>1153</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A70" s="13" t="s">
         <v>1024</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A71" s="23" t="s">
         <v>1027</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A72" s="12" t="s">
         <v>39</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A73" s="13" t="s">
         <v>1154</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A74" s="12" t="s">
         <v>40</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A75" s="12" t="s">
         <v>41</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>-2.8073422429999999</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A76" s="12" t="s">
         <v>41</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>-3.0295876970000002</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A77" s="12" t="s">
         <v>41</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>-3.7686190119999998</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A78" s="12" t="s">
         <v>42</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A79" s="12" t="s">
         <v>43</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A80" s="12" t="s">
         <v>44</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A81" s="12" t="s">
         <v>45</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A82" s="13" t="s">
         <v>998</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A83" s="12" t="s">
         <v>46</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A84" s="12" t="s">
         <v>50</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A85" s="12" t="s">
         <v>49</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A86" s="12" t="s">
         <v>47</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A87" s="23" t="s">
         <v>1261</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A88" s="12" t="s">
         <v>48</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A89" s="12" t="s">
         <v>51</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A90" s="23" t="s">
         <v>1262</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A91" s="13" t="s">
         <v>1155</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A92" s="12" t="s">
         <v>52</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A93" s="12" t="s">
         <v>53</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A94" s="12" t="s">
         <v>54</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A95" s="13" t="s">
         <v>1156</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A96" s="12" t="s">
         <v>55</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A97" s="12" t="s">
         <v>56</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A98" s="12" t="s">
         <v>57</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A99" s="13" t="s">
         <v>1157</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A100" s="12" t="s">
         <v>58</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A101" s="12" t="s">
         <v>59</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A102" s="13" t="s">
         <v>1158</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A103" s="13" t="s">
         <v>1158</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A104" s="12" t="s">
         <v>60</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A105" s="13" t="s">
         <v>1159</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A106" s="12" t="s">
         <v>61</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A107" s="13" t="s">
         <v>1160</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A108" s="12" t="s">
         <v>62</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A109" s="13" t="s">
         <v>1161</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A110" s="16" t="s">
         <v>1162</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>-1.6422614769999999</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A111" s="13" t="s">
         <v>1162</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>-1.6422614769999999</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A112" s="13" t="s">
         <v>1162</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>-1.6422614769999999</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A113" s="12" t="s">
         <v>63</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A114" s="12" t="s">
         <v>64</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A115" s="13" t="s">
         <v>1163</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>-1.64226147711713</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A116" s="12" t="s">
         <v>65</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A117" s="13" t="s">
         <v>1164</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A118" s="12" t="s">
         <v>66</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A119" s="12" t="s">
         <v>67</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A120" s="12" t="s">
         <v>68</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A121" s="12" t="s">
         <v>586</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A122" s="12" t="s">
         <v>69</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A123" s="12" t="s">
         <v>70</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A124" s="13" t="s">
         <v>1165</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A125" s="12" t="s">
         <v>71</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A126" s="12" t="s">
         <v>72</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A127" s="12" t="s">
         <v>587</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A128" s="13" t="s">
         <v>1166</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A129" s="12" t="s">
         <v>588</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A130" s="13" t="s">
         <v>1167</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A131" s="12" t="s">
         <v>73</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A132" s="12" t="s">
         <v>74</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A133" s="13" t="s">
         <v>1168</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A134" s="23" t="s">
         <v>1263</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A135" s="12" t="s">
         <v>75</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A136" s="12" t="s">
         <v>76</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A137" s="12" t="s">
         <v>77</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A138" s="23" t="s">
         <v>1264</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A139" s="12" t="s">
         <v>78</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A140" s="12" t="s">
         <v>79</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A141" s="23" t="s">
         <v>1265</v>
       </c>
@@ -15531,7 +15531,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A142" s="12" t="s">
         <v>80</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A143" s="12" t="s">
         <v>81</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A144" s="12" t="s">
         <v>82</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A145" s="12" t="s">
         <v>83</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A146" s="23" t="s">
         <v>1266</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A147" s="12" t="s">
         <v>84</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A148" s="13" t="s">
         <v>602</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A149" s="13" t="s">
         <v>1229</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>-0.97782443500000005</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A150" s="12" t="s">
         <v>85</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>1594510</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A151" s="12" t="s">
         <v>86</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>871799</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A152" s="12" t="s">
         <v>87</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A153" s="12" t="s">
         <v>88</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A154" s="12" t="s">
         <v>89</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>-16.794208659999999</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A155" s="23" t="s">
         <v>1267</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A156" s="23" t="s">
         <v>1268</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A157" s="12" t="s">
         <v>90</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A158" s="12" t="s">
         <v>91</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A159" s="12" t="s">
         <v>92</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A160" s="12" t="s">
         <v>92</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A161" s="12" t="s">
         <v>1233</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A162" s="12" t="s">
         <v>1233</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A163" s="15" t="s">
         <v>1236</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A164" s="15" t="s">
         <v>1236</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A165" s="23" t="s">
         <v>1269</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A166" s="23" t="s">
         <v>1270</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A167" s="23" t="s">
         <v>1270</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A168" s="12" t="s">
         <v>93</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A169" s="12" t="s">
         <v>94</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>-1.0702154109999999</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A170" s="12" t="s">
         <v>95</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A171" s="12" t="s">
         <v>96</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A172" s="12" t="s">
         <v>97</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A173" s="12" t="s">
         <v>589</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A174" s="12" t="s">
         <v>590</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A175" s="12" t="s">
         <v>99</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A176" s="12" t="s">
         <v>98</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A177" s="23" t="s">
         <v>1271</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A178" s="12" t="s">
         <v>100</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A179" s="12" t="s">
         <v>101</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>-1.0851886129999999</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A180" s="12" t="s">
         <v>102</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A181" s="12" t="s">
         <v>103</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>-12.368171999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A182" s="12" t="s">
         <v>104</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A183" s="12" t="s">
         <v>105</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>-0.93115156700000001</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A184" s="12" t="s">
         <v>107</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A185" s="12" t="s">
         <v>106</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A186" s="12" t="s">
         <v>110</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>509.02196298391681</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A187" s="12" t="s">
         <v>108</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A188" s="12" t="s">
         <v>109</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>-0.98439878000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A189" s="23" t="s">
         <v>1272</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>-0.98439878000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A190" s="12" t="s">
         <v>111</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A191" s="23" t="s">
         <v>1273</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A192" s="12" t="s">
         <v>112</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A193" s="23" t="s">
         <v>1274</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A194" s="13" t="s">
         <v>1169</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A195" s="13" t="s">
         <v>1170</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A196" s="13" t="s">
         <v>1171</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A197" s="13" t="s">
         <v>1172</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A198" s="13" t="s">
         <v>1173</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A199" s="13" t="s">
         <v>1174</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A200" s="13" t="s">
         <v>1175</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A201" s="13" t="s">
         <v>1176</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A202" s="12" t="s">
         <v>113</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A203" s="12" t="s">
         <v>113</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A204" s="13" t="s">
         <v>1177</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A205" s="13" t="s">
         <v>1178</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>-1.433074371</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A206" s="13" t="s">
         <v>1178</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A207" s="13" t="s">
         <v>1178</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A208" s="12" t="s">
         <v>114</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A209" s="13" t="s">
         <v>1179</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>-0.88376249500000004</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A210" s="13" t="s">
         <v>1179</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>-0.69758297599999997</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A211" s="12" t="s">
         <v>115</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A212" s="13" t="s">
         <v>1180</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>-1.433074371</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A213" s="13" t="s">
         <v>1180</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A214" s="12" t="s">
         <v>116</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A215" s="12" t="s">
         <v>116</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A216" s="12" t="s">
         <v>116</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A217" s="12" t="s">
         <v>117</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A218" s="12" t="s">
         <v>591</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A219" s="12" t="s">
         <v>591</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A220" s="12" t="s">
         <v>592</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A221" s="12" t="s">
         <v>208</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A222" s="23" t="s">
         <v>1275</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A223" s="23" t="s">
         <v>1276</v>
       </c>
@@ -17700,7 +17700,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A224" s="12" t="s">
         <v>118</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A225" s="12" t="s">
         <v>119</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A226" s="23" t="s">
         <v>1277</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A227" s="12" t="s">
         <v>121</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A228" s="12" t="s">
         <v>122</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A229" s="12" t="s">
         <v>120</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A230" s="13" t="s">
         <v>1181</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A231" s="12" t="s">
         <v>123</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A232" s="12" t="s">
         <v>124</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A233" s="23" t="s">
         <v>1278</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A234" s="23" t="s">
         <v>1279</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A235" s="23" t="s">
         <v>1280</v>
       </c>
@@ -17990,7 +17990,7 @@
       </c>
       <c r="O235"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A236" s="23" t="s">
         <v>1279</v>
       </c>
@@ -18017,7 +18017,7 @@
       </c>
       <c r="O236"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A237" s="23" t="s">
         <v>1281</v>
       </c>
@@ -18044,7 +18044,7 @@
       </c>
       <c r="O237"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A238" s="23" t="s">
         <v>1282</v>
       </c>
@@ -18065,7 +18065,7 @@
       </c>
       <c r="O238"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A239" s="23" t="s">
         <v>1283</v>
       </c>
@@ -18092,7 +18092,7 @@
       </c>
       <c r="O239"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A240" s="23" t="s">
         <v>1284</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A241" s="12" t="s">
         <v>125</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A242" s="23" t="s">
         <v>1285</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A243" s="12" t="s">
         <v>126</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A244" s="23" t="s">
         <v>1286</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A245" s="12" t="s">
         <v>127</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A246" s="23" t="s">
         <v>1287</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A247" s="12" t="s">
         <v>128</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>570.58101659624117</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A248" s="23" t="s">
         <v>1288</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>570.58101659624117</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A249" s="12" t="s">
         <v>129</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A250" s="23" t="s">
         <v>1289</v>
       </c>
@@ -18388,7 +18388,7 @@
         <v>-11.37671321</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A251" s="12" t="s">
         <v>130</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A252" s="13" t="s">
         <v>1182</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>207469</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A253" s="12" t="s">
         <v>131</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>299534</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A254" s="12" t="s">
         <v>132</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>357.08070152277901</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A255" s="12" t="s">
         <v>133</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A256" s="12" t="s">
         <v>134</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A257" s="13" t="s">
         <v>1183</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>715.86623855298558</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A258" s="12" t="s">
         <v>135</v>
       </c>
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A259" s="12" t="s">
         <v>136</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A260" s="13" t="s">
         <v>1184</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>2573034</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A261" s="12" t="s">
         <v>137</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A262" s="12" t="s">
         <v>138</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A263" s="23" t="s">
         <v>1290</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A264" s="12" t="s">
         <v>139</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A265" s="12" t="s">
         <v>140</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A266" s="23" t="s">
         <v>1291</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A267" s="12" t="s">
         <v>141</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A268" s="23" t="s">
         <v>1292</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A269" s="12" t="s">
         <v>142</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>601.80199202063136</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A270" s="12" t="s">
         <v>143</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A271" s="12" t="s">
         <v>144</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A272" s="12" t="s">
         <v>145</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A273" s="13" t="s">
         <v>1185</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A274" s="12" t="s">
         <v>146</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A275" s="12" t="s">
         <v>147</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A276" s="23" t="s">
         <v>1293</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A277" s="12" t="s">
         <v>148</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A278" s="23" t="s">
         <v>1294</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A279" s="12" t="s">
         <v>149</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A280" s="12" t="s">
         <v>150</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A281" s="12" t="s">
         <v>156</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A282" s="12" t="s">
         <v>151</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A283" s="12" t="s">
         <v>152</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A284" s="12" t="s">
         <v>1230</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A285" s="12" t="s">
         <v>153</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A286" s="12" t="s">
         <v>154</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A287" s="12" t="s">
         <v>155</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A288" s="23" t="s">
         <v>1295</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A289" s="23" t="s">
         <v>1296</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A290" s="23" t="s">
         <v>1297</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A291" s="23" t="s">
         <v>1298</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A292" s="12" t="s">
         <v>157</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A293" s="23" t="s">
         <v>1299</v>
       </c>
@@ -19470,7 +19470,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A294" s="12" t="s">
         <v>158</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A295" s="12" t="s">
         <v>159</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A296" s="23" t="s">
         <v>1300</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A297" s="23" t="s">
         <v>1301</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A298" s="23" t="s">
         <v>1302</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A299" s="12" t="s">
         <v>160</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A300" s="23" t="s">
         <v>1303</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A301" s="23" t="s">
         <v>1304</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A302" s="12" t="s">
         <v>161</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A303" s="23" t="s">
         <v>1305</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A304" s="12" t="s">
         <v>162</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A305" s="12" t="s">
         <v>163</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A306" s="12" t="s">
         <v>164</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A307" s="23" t="s">
         <v>1306</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A308" s="12" t="s">
         <v>166</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>163.38977718939458</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A309" s="12" t="s">
         <v>165</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A310" s="15" t="s">
         <v>1220</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>163.38977718939458</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A311" s="15" t="s">
         <v>1220</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>-1.167752117</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A312" s="15" t="s">
         <v>1220</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>-1.237261385</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A313" s="15" t="s">
         <v>1220</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>-1.6799012120000001</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A314" s="15" t="s">
         <v>1221</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>163.38977718939458</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A315" s="15" t="s">
         <v>1221</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>-1.167752117</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A316" s="15" t="s">
         <v>1221</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>-1.237261385</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A317" s="15" t="s">
         <v>1221</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>-1.6799012120000001</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A318" s="23" t="s">
         <v>1307</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A319" s="12" t="s">
         <v>167</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A320" s="12" t="s">
         <v>168</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>-1.167752117</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A321" s="12" t="s">
         <v>169</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A322" s="12" t="s">
         <v>170</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>-1.237261385</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A323" s="12" t="s">
         <v>171</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A324" s="12" t="s">
         <v>172</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A325" s="23" t="s">
         <v>1308</v>
       </c>
@@ -20351,7 +20351,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A326" s="12" t="s">
         <v>173</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A327" s="12" t="s">
         <v>174</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A328" s="23" t="s">
         <v>1309</v>
       </c>
@@ -20436,7 +20436,7 @@
         <v>-1.6799012120000001</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A329" s="12" t="s">
         <v>175</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A330" s="23" t="s">
         <v>1310</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A331" s="12" t="s">
         <v>176</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A332" s="23" t="s">
         <v>1311</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A333" s="12" t="s">
         <v>177</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A334" s="23" t="s">
         <v>1312</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A335" s="12" t="s">
         <v>178</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A336" s="12" t="s">
         <v>179</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A337" s="12" t="s">
         <v>180</v>
       </c>
@@ -20661,7 +20661,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A338" s="12" t="s">
         <v>181</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A339" s="12" t="s">
         <v>593</v>
       </c>
@@ -20699,7 +20699,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A340" s="23" t="s">
         <v>1313</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A341" s="12" t="s">
         <v>182</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A342" s="23" t="s">
         <v>1314</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A343" s="23" t="s">
         <v>1315</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A344" s="12" t="s">
         <v>183</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A345" s="12" t="s">
         <v>184</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A346" s="12" t="s">
         <v>185</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A347" s="12" t="s">
         <v>187</v>
       </c>
@@ -20884,7 +20884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A348" s="12" t="s">
         <v>186</v>
       </c>
@@ -20907,7 +20907,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A349" s="23" t="s">
         <v>1316</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A350" s="23" t="s">
         <v>1317</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A351" s="12" t="s">
         <v>188</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A352" s="12" t="s">
         <v>189</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A353" s="12" t="s">
         <v>190</v>
       </c>
@@ -21022,7 +21022,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A354" s="23" t="s">
         <v>1318</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A355" s="12" t="s">
         <v>191</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A356" s="12" t="s">
         <v>192</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A357" s="12" t="s">
         <v>594</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A358" s="12" t="s">
         <v>595</v>
       </c>
@@ -21132,7 +21132,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A359" s="12" t="s">
         <v>193</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A360" s="23" t="s">
         <v>1320</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A361" s="12" t="s">
         <v>194</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A362" s="23" t="s">
         <v>1321</v>
       </c>
@@ -21223,7 +21223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A363" s="23" t="s">
         <v>1322</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A364" s="12" t="s">
         <v>197</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A365" s="12" t="s">
         <v>195</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A366" s="12" t="s">
         <v>196</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A367" s="12" t="s">
         <v>198</v>
       </c>
@@ -21351,7 +21351,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A368" s="12" t="s">
         <v>199</v>
       </c>
@@ -21374,7 +21374,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A369" s="23" t="s">
         <v>1323</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A370" s="12" t="s">
         <v>200</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A371" s="12" t="s">
         <v>201</v>
       </c>
@@ -21455,7 +21455,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A372" s="12" t="s">
         <v>202</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A373" s="12" t="s">
         <v>203</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A374" s="12" t="s">
         <v>204</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A375" s="12" t="s">
         <v>205</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>-15.980524239999999</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A376" s="12" t="s">
         <v>206</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A377" s="12" t="s">
         <v>207</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A378" s="12" t="s">
         <v>596</v>
       </c>
@@ -21632,7 +21632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A379" s="12" t="s">
         <v>597</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A380" s="23" t="s">
         <v>1324</v>
       </c>
@@ -21661,7 +21661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A381" s="12" t="s">
         <v>585</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A382" s="13" t="s">
         <v>1226</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A383" s="12" t="s">
         <v>1227</v>
       </c>
@@ -21717,7 +21717,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A384" s="12" t="s">
         <v>159</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A385" s="12" t="s">
         <v>1237</v>
       </c>
@@ -21753,7 +21753,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A386" s="12" t="s">
         <v>1237</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A387" s="12" t="s">
         <v>1238</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>-1.37</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A388" s="12" t="s">
         <v>1239</v>
       </c>
@@ -21833,15 +21833,15 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="4"/>
-    <col min="13" max="13" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1171875" style="4"/>
+    <col min="13" max="13" width="49.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
         <v>1141</v>
@@ -21901,7 +21901,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>388</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>490</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>501</v>
       </c>
@@ -22138,7 +22138,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>531</v>
       </c>
@@ -22220,7 +22220,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>500</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>499</v>
       </c>
@@ -22384,7 +22384,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>524</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>515</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>505</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>556</v>
       </c>
@@ -22712,7 +22712,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>487</v>
       </c>
@@ -22794,7 +22794,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>517</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>493</v>
       </c>
@@ -22958,7 +22958,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>494</v>
       </c>
@@ -23040,7 +23040,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>513</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>495</v>
       </c>
@@ -23286,7 +23286,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>491</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>489</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>496</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>492</v>
       </c>
@@ -23614,7 +23614,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>502</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>497</v>
       </c>
@@ -23778,7 +23778,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>498</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>557</v>
       </c>
@@ -23942,7 +23942,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" s="3" t="s">
         <v>499</v>
       </c>
@@ -24018,7 +24018,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="3" t="s">
         <v>531</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" s="3" t="s">
         <v>573</v>
       </c>
@@ -24170,7 +24170,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="3" t="s">
         <v>487</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="3" t="s">
         <v>576</v>
       </c>
@@ -24322,7 +24322,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="33" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="3" t="s">
         <v>493</v>
       </c>
@@ -24398,7 +24398,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="34" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L34" s="5">
         <v>31</v>
       </c>
@@ -24461,7 +24461,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="35" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L35" s="5">
         <v>32</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L36" s="5">
         <v>33</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="37" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L37" s="5">
         <v>34</v>
       </c>
@@ -24650,7 +24650,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="38" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L38" s="5">
         <v>35</v>
       </c>
@@ -24713,7 +24713,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="39" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L39" s="5">
         <v>36</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="40" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L40" s="5">
         <v>37</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="41" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L41" s="5">
         <v>38</v>
       </c>
@@ -24902,7 +24902,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="42" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L42" s="5">
         <v>39</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="43" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L43" s="5">
         <v>40</v>
       </c>
@@ -25028,7 +25028,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="44" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L44" s="5">
         <v>41</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="45" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L45" s="5">
         <v>42</v>
       </c>
@@ -25154,7 +25154,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="46" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L46" s="5">
         <v>43</v>
       </c>
@@ -25217,7 +25217,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="47" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L47" s="5">
         <v>44</v>
       </c>
@@ -25280,7 +25280,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="48" spans="6:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L48" s="5">
         <v>45</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="49" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L49" s="5">
         <v>46</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L50" s="5">
         <v>47</v>
       </c>
@@ -25469,7 +25469,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="51" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L51" s="5">
         <v>48</v>
       </c>
@@ -25532,7 +25532,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="52" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L52" s="5">
         <v>49</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="53" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L53" s="5">
         <v>50</v>
       </c>
@@ -25658,7 +25658,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="54" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L54" s="5">
         <v>51</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="55" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L55" s="5">
         <v>52</v>
       </c>
@@ -25784,7 +25784,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="56" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L56" s="5">
         <v>53</v>
       </c>
@@ -25847,7 +25847,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L57" s="5">
         <v>54</v>
       </c>
@@ -25910,7 +25910,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L58" s="5">
         <v>55</v>
       </c>
@@ -25973,7 +25973,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L59" s="5">
         <v>56</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L60" s="5">
         <v>57</v>
       </c>
@@ -26099,7 +26099,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L61" s="5">
         <v>58</v>
       </c>
@@ -26162,7 +26162,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L62" s="5">
         <v>59</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="63" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L63" s="5">
         <v>60</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="64" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L64" s="5">
         <v>61</v>
       </c>
@@ -26351,7 +26351,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="65" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L65" s="5">
         <v>62</v>
       </c>
@@ -26414,7 +26414,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="66" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L66" s="5">
         <v>63</v>
       </c>
@@ -26477,7 +26477,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L67" s="5">
         <v>64</v>
       </c>
@@ -26540,7 +26540,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="68" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L68" s="5">
         <v>65</v>
       </c>
@@ -26603,7 +26603,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="69" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L69" s="5">
         <v>66</v>
       </c>
@@ -26666,7 +26666,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="70" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L70" s="5">
         <v>67</v>
       </c>
@@ -26729,7 +26729,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="71" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L71" s="5">
         <v>68</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="72" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L72" s="5">
         <v>69</v>
       </c>
@@ -26855,7 +26855,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="73" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L73" s="5">
         <v>70</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="74" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L74" s="5">
         <v>71</v>
       </c>
@@ -26981,7 +26981,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="75" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L75" s="5">
         <v>72</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="76" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L76" s="5">
         <v>73</v>
       </c>
@@ -27107,7 +27107,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="77" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L77" s="5">
         <v>74</v>
       </c>
@@ -27170,7 +27170,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="78" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L78" s="5">
         <v>75</v>
       </c>
@@ -27233,7 +27233,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="79" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L79" s="5">
         <v>76</v>
       </c>
@@ -27296,7 +27296,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="80" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L80" s="5">
         <v>77</v>
       </c>
@@ -27359,7 +27359,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="81" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L81" s="5">
         <v>78</v>
       </c>
@@ -27422,7 +27422,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="82" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L82" s="5">
         <v>79</v>
       </c>
@@ -27485,7 +27485,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="83" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L83" s="5">
         <v>80</v>
       </c>
@@ -27548,7 +27548,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="84" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L84" s="5">
         <v>81</v>
       </c>
@@ -27611,7 +27611,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="85" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L85" s="5">
         <v>82</v>
       </c>
@@ -27674,7 +27674,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="86" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L86" s="5">
         <v>83</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="87" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L87" s="5">
         <v>84</v>
       </c>
@@ -27800,7 +27800,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="88" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L88" s="5">
         <v>85</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="89" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L89" s="5">
         <v>86</v>
       </c>
@@ -27926,7 +27926,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L90" s="5">
         <v>87</v>
       </c>
@@ -27989,7 +27989,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="91" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L91" s="5">
         <v>88</v>
       </c>
@@ -28052,7 +28052,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L92" s="5">
         <v>89</v>
       </c>
@@ -28115,7 +28115,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L93" s="5">
         <v>90</v>
       </c>
@@ -28178,7 +28178,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="94" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L94" s="5">
         <v>91</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="95" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L95" s="5">
         <v>92</v>
       </c>
@@ -28304,7 +28304,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="96" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L96" s="5">
         <v>93</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="97" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L97" s="5">
         <v>94</v>
       </c>
@@ -28430,7 +28430,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="98" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L98" s="5">
         <v>95</v>
       </c>
@@ -28493,7 +28493,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="99" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L99" s="5">
         <v>96</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="100" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L100" s="5">
         <v>97</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="101" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L101" s="5">
         <v>98</v>
       </c>
@@ -28682,7 +28682,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="102" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L102" s="5">
         <v>99</v>
       </c>
@@ -28745,7 +28745,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="103" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L103" s="5">
         <v>100</v>
       </c>
@@ -28808,7 +28808,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L104" s="5">
         <v>101</v>
       </c>
@@ -28871,7 +28871,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="105" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L105" s="5">
         <v>102</v>
       </c>
@@ -28934,7 +28934,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="106" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L106" s="5">
         <v>103</v>
       </c>
@@ -28997,7 +28997,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="107" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L107" s="5">
         <v>104</v>
       </c>
@@ -29060,7 +29060,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="108" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L108" s="5">
         <v>105</v>
       </c>
@@ -29123,7 +29123,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="109" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L109" s="5">
         <v>106</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="110" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L110" s="5">
         <v>107</v>
       </c>
@@ -29249,7 +29249,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="111" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L111" s="5">
         <v>108</v>
       </c>
@@ -29312,7 +29312,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="112" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L112" s="5">
         <v>109</v>
       </c>
@@ -29375,7 +29375,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="113" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L113" s="5">
         <v>110</v>
       </c>
@@ -29438,7 +29438,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="114" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L114" s="5">
         <v>111</v>
       </c>
@@ -29501,7 +29501,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="115" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L115" s="5">
         <v>112</v>
       </c>
@@ -29564,7 +29564,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="116" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L116" s="5">
         <v>113</v>
       </c>
@@ -29627,7 +29627,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="117" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L117" s="5">
         <v>114</v>
       </c>
@@ -29690,7 +29690,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="118" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L118" s="5">
         <v>115</v>
       </c>
@@ -29753,7 +29753,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="119" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L119" s="5">
         <v>116</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="120" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L120" s="5">
         <v>117</v>
       </c>
@@ -29879,7 +29879,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="121" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L121" s="5">
         <v>118</v>
       </c>
@@ -29942,7 +29942,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="122" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L122" s="5">
         <v>119</v>
       </c>
@@ -30005,7 +30005,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="123" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L123" s="5">
         <v>120</v>
       </c>
@@ -30068,7 +30068,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="124" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L124" s="5">
         <v>121</v>
       </c>
@@ -30131,7 +30131,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="125" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L125" s="5">
         <v>122</v>
       </c>
@@ -30194,7 +30194,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="126" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L126" s="5">
         <v>123</v>
       </c>
@@ -30257,7 +30257,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="127" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L127" s="5">
         <v>124</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="128" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L128" s="5">
         <v>125</v>
       </c>
@@ -30383,7 +30383,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="129" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L129" s="5">
         <v>126</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="130" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L130" s="5">
         <v>127</v>
       </c>
@@ -30509,7 +30509,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="131" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L131" s="5">
         <v>128</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="132" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L132" s="5">
         <v>129</v>
       </c>
@@ -30635,7 +30635,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="133" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L133" s="5">
         <v>130</v>
       </c>
@@ -30698,7 +30698,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="134" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L134" s="5">
         <v>131</v>
       </c>
@@ -30761,7 +30761,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="135" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L135" s="5">
         <v>132</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="136" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L136" s="5">
         <v>133</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="137" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L137" s="5">
         <v>134</v>
       </c>
@@ -30950,7 +30950,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="138" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L138" s="5">
         <v>135</v>
       </c>
@@ -31013,7 +31013,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="139" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L139" s="5">
         <v>136</v>
       </c>
@@ -31076,7 +31076,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="140" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L140" s="5">
         <v>137</v>
       </c>
@@ -31139,7 +31139,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="141" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L141" s="5">
         <v>138</v>
       </c>
@@ -31202,7 +31202,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="142" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L142" s="5">
         <v>139</v>
       </c>
@@ -31265,7 +31265,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="143" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L143" s="5">
         <v>140</v>
       </c>
@@ -31328,7 +31328,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="144" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L144" s="5">
         <v>141</v>
       </c>
@@ -31391,7 +31391,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="145" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L145" s="5">
         <v>142</v>
       </c>
@@ -31454,7 +31454,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="146" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L146" s="5">
         <v>143</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="147" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L147" s="5">
         <v>144</v>
       </c>
@@ -31580,7 +31580,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="148" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L148" s="5">
         <v>145</v>
       </c>
@@ -31643,7 +31643,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="149" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L149" s="5">
         <v>146</v>
       </c>
@@ -31706,7 +31706,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="150" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L150" s="5">
         <v>147</v>
       </c>
@@ -31769,7 +31769,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="151" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L151" s="5">
         <v>148</v>
       </c>
@@ -31832,7 +31832,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="152" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L152" s="5">
         <v>149</v>
       </c>
@@ -31895,7 +31895,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="153" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L153" s="5">
         <v>150</v>
       </c>
@@ -31958,7 +31958,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="154" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L154" s="5">
         <v>151</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="155" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L155" s="5">
         <v>152</v>
       </c>
@@ -32084,7 +32084,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="156" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L156" s="5">
         <v>153</v>
       </c>
@@ -32147,7 +32147,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="157" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L157" s="5">
         <v>154</v>
       </c>
@@ -32210,7 +32210,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="158" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L158" s="5">
         <v>155</v>
       </c>
@@ -32273,7 +32273,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="159" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L159" s="5">
         <v>156</v>
       </c>
@@ -32336,7 +32336,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="160" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L160" s="5">
         <v>157</v>
       </c>
@@ -32399,7 +32399,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="161" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L161" s="5">
         <v>158</v>
       </c>
@@ -32462,7 +32462,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="162" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L162" s="5">
         <v>159</v>
       </c>
@@ -32525,7 +32525,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="163" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L163" s="5">
         <v>160</v>
       </c>
@@ -32588,7 +32588,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="164" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L164" s="5">
         <v>161</v>
       </c>
@@ -32651,7 +32651,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="165" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L165" s="5">
         <v>162</v>
       </c>
@@ -32714,7 +32714,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="166" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L166" s="5">
         <v>163</v>
       </c>
@@ -32777,7 +32777,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="167" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L167" s="5">
         <v>164</v>
       </c>
@@ -32840,7 +32840,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="168" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L168" s="5">
         <v>165</v>
       </c>
@@ -32903,7 +32903,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="169" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L169" s="5">
         <v>166</v>
       </c>
@@ -32966,7 +32966,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="170" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L170" s="5">
         <v>167</v>
       </c>
@@ -33029,7 +33029,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="171" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L171" s="5">
         <v>168</v>
       </c>
@@ -33092,7 +33092,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="172" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L172" s="5">
         <v>169</v>
       </c>
@@ -33155,7 +33155,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="173" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L173" s="5">
         <v>170</v>
       </c>
@@ -33218,7 +33218,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="174" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L174" s="5">
         <v>171</v>
       </c>
@@ -33281,7 +33281,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="175" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L175" s="5">
         <v>172</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="176" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L176" s="5">
         <v>173</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="177" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L177" s="5">
         <v>174</v>
       </c>
@@ -33470,7 +33470,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="178" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L178" s="5">
         <v>175</v>
       </c>
@@ -33533,7 +33533,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L179" s="5">
         <v>176</v>
       </c>
@@ -33596,7 +33596,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L180" s="5">
         <v>177</v>
       </c>
@@ -33659,7 +33659,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="181" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L181" s="5">
         <v>178</v>
       </c>
@@ -33690,7 +33690,7 @@
       <c r="AI181" s="8"/>
       <c r="AJ181" s="8"/>
     </row>
-    <row r="182" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L182" s="5">
         <v>179</v>
       </c>
@@ -33702,7 +33702,7 @@
         <v>3300-EAG-6-7_F001.xlsx</v>
       </c>
     </row>
-    <row r="183" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L183" s="5">
         <v>180</v>
       </c>
@@ -33714,7 +33714,7 @@
         <v>3300-EAG-6-7_F002.xlsx</v>
       </c>
     </row>
-    <row r="184" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L184" s="5">
         <v>181</v>
       </c>
@@ -33726,7 +33726,7 @@
         <v>3300-EAG-8-9_F001.xlsx</v>
       </c>
     </row>
-    <row r="185" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L185" s="5">
         <v>182</v>
       </c>
@@ -33738,7 +33738,7 @@
         <v>3300-EAG-8-9_F002_Vuntus.xlsx</v>
       </c>
     </row>
-    <row r="186" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L186" s="5">
         <v>183</v>
       </c>
@@ -33750,7 +33750,7 @@
         <v>3300-EAG-9-10-11-12.xlsx</v>
       </c>
     </row>
-    <row r="187" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L187" s="5">
         <v>184</v>
       </c>
@@ -33762,7 +33762,7 @@
         <v>3300-GAF_F001.xlsx</v>
       </c>
     </row>
-    <row r="188" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L188" s="5">
         <v>185</v>
       </c>
@@ -33774,7 +33774,7 @@
         <v>3300-GAF_F002_Mandemakers_nieuwe_naam_bethune.xlsx</v>
       </c>
     </row>
-    <row r="189" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L189" s="5">
         <v>186</v>
       </c>
@@ -33786,7 +33786,7 @@
         <v>3300-GAF_F002_Mandemakers_nieuwe_naam_org.xlsx</v>
       </c>
     </row>
-    <row r="190" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L190" s="5">
         <v>187</v>
       </c>
@@ -33798,7 +33798,7 @@
         <v>3301-EAG-1_F002.xlsx</v>
       </c>
     </row>
-    <row r="191" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L191" s="5">
         <v>188</v>
       </c>
@@ -33810,7 +33810,7 @@
         <v>3301-EAG-2_F002.xlsx</v>
       </c>
     </row>
-    <row r="192" spans="12:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="12:36" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L192" s="5">
         <v>189</v>
       </c>
@@ -33822,7 +33822,7 @@
         <v>3302-GAF-F002_OBT.xlsx</v>
       </c>
     </row>
-    <row r="193" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L193" s="5">
         <v>190</v>
       </c>
@@ -33834,7 +33834,7 @@
         <v>3302-GAF-F003_OBT.xlsx</v>
       </c>
     </row>
-    <row r="194" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L194" s="5">
         <v>191</v>
       </c>
@@ -33846,7 +33846,7 @@
         <v>3302-GAF_F001.xlsx</v>
       </c>
     </row>
-    <row r="195" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L195" s="5">
         <v>192</v>
       </c>
@@ -33858,7 +33858,7 @@
         <v>3302-GAF_OBT.xlsx</v>
       </c>
     </row>
-    <row r="196" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L196" s="5">
         <v>193</v>
       </c>
@@ -33870,7 +33870,7 @@
         <v>3303-EAG-1_F002.xlsx</v>
       </c>
     </row>
-    <row r="197" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L197" s="5">
         <v>194</v>
       </c>
@@ -33882,7 +33882,7 @@
         <v>3311-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="198" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L198" s="5">
         <v>195</v>
       </c>
@@ -33894,7 +33894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L199" s="5">
         <v>196</v>
       </c>
@@ -33906,7 +33906,7 @@
         <v>3320-EAG-2_TerraNova.xlsx</v>
       </c>
     </row>
-    <row r="200" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L200" s="5">
         <v>197</v>
       </c>
@@ -33918,7 +33918,7 @@
         <v>3320-EAG-4_LoenderveensePlasOost.xlsx</v>
       </c>
     </row>
-    <row r="201" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L201" s="5">
         <v>198</v>
       </c>
@@ -33930,7 +33930,7 @@
         <v>3340-EAG-1-2-3_F002.xlsx</v>
       </c>
     </row>
-    <row r="202" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L202" s="5">
         <v>199</v>
       </c>
@@ -33942,7 +33942,7 @@
         <v>3350-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="203" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L203" s="5">
         <v>200</v>
       </c>
@@ -33954,7 +33954,7 @@
         <v>3360-EAG-1_F002.xlsx</v>
       </c>
     </row>
-    <row r="204" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L204" s="5">
         <v>201</v>
       </c>
@@ -33966,7 +33966,7 @@
         <v>3360-EAG-10_F002.xlsx</v>
       </c>
     </row>
-    <row r="205" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L205" s="5">
         <v>202</v>
       </c>
@@ -33978,7 +33978,7 @@
         <v>3360-EAG-11_F002.xlsx</v>
       </c>
     </row>
-    <row r="206" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L206" s="5">
         <v>203</v>
       </c>
@@ -33990,7 +33990,7 @@
         <v>3360-EAG-12_F001.xlsx</v>
       </c>
     </row>
-    <row r="207" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L207" s="5">
         <v>204</v>
       </c>
@@ -34002,7 +34002,7 @@
         <v>3360-EAG-12_F002.xlsx</v>
       </c>
     </row>
-    <row r="208" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L208" s="5">
         <v>205</v>
       </c>
@@ -34014,7 +34014,7 @@
         <v>3360-EAG-13_F001.xlsx</v>
       </c>
     </row>
-    <row r="209" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L209" s="5">
         <v>206</v>
       </c>
@@ -34026,7 +34026,7 @@
         <v>3360-EAG-14_F002.xlsx</v>
       </c>
     </row>
-    <row r="210" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L210" s="5">
         <v>207</v>
       </c>
@@ -34038,7 +34038,7 @@
         <v>3360-EAG-15_F002.xlsx</v>
       </c>
     </row>
-    <row r="211" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L211" s="5">
         <v>208</v>
       </c>
@@ -34050,7 +34050,7 @@
         <v>3360-EAG-16_F001.xlsx</v>
       </c>
     </row>
-    <row r="212" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L212" s="5">
         <v>209</v>
       </c>
@@ -34062,7 +34062,7 @@
         <v>3360-EAG-16_F002.xlsx</v>
       </c>
     </row>
-    <row r="213" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L213" s="5">
         <v>210</v>
       </c>
@@ -34074,7 +34074,7 @@
         <v>3360-EAG-16_MolenpolderNatuur_tm2017.xlsx</v>
       </c>
     </row>
-    <row r="214" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L214" s="5">
         <v>211</v>
       </c>
@@ -34086,7 +34086,7 @@
         <v>3360-EAG-17_F001.xlsx</v>
       </c>
     </row>
-    <row r="215" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L215" s="5">
         <v>212</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>3360-EAG-17_F002.xlsx</v>
       </c>
     </row>
-    <row r="216" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L216" s="5">
         <v>213</v>
       </c>
@@ -34110,7 +34110,7 @@
         <v>3360-EAG-17_Westbroek_tm2017.xlsx</v>
       </c>
     </row>
-    <row r="217" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L217" s="5">
         <v>214</v>
       </c>
@@ -34122,7 +34122,7 @@
         <v>3360-EAG-18_F002.xlsx</v>
       </c>
     </row>
-    <row r="218" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L218" s="5">
         <v>215</v>
       </c>
@@ -34134,7 +34134,7 @@
         <v>3360-EAG-2_F002.xlsx</v>
       </c>
     </row>
-    <row r="219" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L219" s="5">
         <v>216</v>
       </c>
@@ -34146,7 +34146,7 @@
         <v>3360-EAG-2_F003.xlsx</v>
       </c>
     </row>
-    <row r="220" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L220" s="5">
         <v>217</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>3360-EAG-3_F002.xlsx</v>
       </c>
     </row>
-    <row r="221" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L221" s="5">
         <v>218</v>
       </c>
@@ -34170,7 +34170,7 @@
         <v>3360-EAG-4_F002.xlsx</v>
       </c>
     </row>
-    <row r="222" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L222" s="5">
         <v>219</v>
       </c>
@@ -34182,7 +34182,7 @@
         <v>3360-EAG-5_F002.xlsx</v>
       </c>
     </row>
-    <row r="223" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L223" s="5">
         <v>220</v>
       </c>
@@ -34194,7 +34194,7 @@
         <v>3360-EAG-6_F002.xlsx</v>
       </c>
     </row>
-    <row r="224" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L224" s="5">
         <v>221</v>
       </c>
@@ -34206,7 +34206,7 @@
         <v>3360-EAG-7_F002.xlsx</v>
       </c>
     </row>
-    <row r="225" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L225" s="5">
         <v>222</v>
       </c>
@@ -34218,7 +34218,7 @@
         <v>3360-EAG-7_F003.xlsx</v>
       </c>
     </row>
-    <row r="226" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L226" s="5">
         <v>223</v>
       </c>
@@ -34230,7 +34230,7 @@
         <v>3360-EAG-8_F002.xlsx</v>
       </c>
     </row>
-    <row r="227" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L227" s="5">
         <v>224</v>
       </c>
@@ -34242,7 +34242,7 @@
         <v>3360-EAG-9_F002.xlsx</v>
       </c>
     </row>
-    <row r="228" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L228" s="5">
         <v>225</v>
       </c>
@@ -34254,7 +34254,7 @@
         <v>3370-EAG-1-2-3_F002.xlsx</v>
       </c>
     </row>
-    <row r="229" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L229" s="5">
         <v>226</v>
       </c>
@@ -34266,7 +34266,7 @@
         <v>3370-EAG-4_F002.xlsx</v>
       </c>
     </row>
-    <row r="230" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L230" s="5">
         <v>227</v>
       </c>
@@ -34278,7 +34278,7 @@
         <v>3370-EAG-5_F002.xlsx</v>
       </c>
     </row>
-    <row r="231" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L231" s="5">
         <v>228</v>
       </c>
@@ -34290,7 +34290,7 @@
         <v>4000-EAG-1-3-4-5-6-7_F001.xlsx</v>
       </c>
     </row>
-    <row r="232" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L232" s="5">
         <v>229</v>
       </c>
@@ -34302,7 +34302,7 @@
         <v>4000-EAG-1-3-4-5-6-7_F003.xlsx</v>
       </c>
     </row>
-    <row r="233" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L233" s="5">
         <v>230</v>
       </c>
@@ -34314,7 +34314,7 @@
         <v>4000-EAG-1-3-4-6-7-8_F004.xlsx</v>
       </c>
     </row>
-    <row r="234" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L234" s="5">
         <v>231</v>
       </c>
@@ -34326,7 +34326,7 @@
         <v>4000-EAG-2_F001.xlsx</v>
       </c>
     </row>
-    <row r="235" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L235" s="5">
         <v>232</v>
       </c>
@@ -34338,7 +34338,7 @@
         <v>4000-EAG-2_F002.xlsx</v>
       </c>
     </row>
-    <row r="236" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L236" s="5">
         <v>233</v>
       </c>
@@ -34350,7 +34350,7 @@
         <v>4000_SGVboezem_tm2017a.xlsx</v>
       </c>
     </row>
-    <row r="237" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L237" s="5">
         <v>234</v>
       </c>
@@ -34362,7 +34362,7 @@
         <v>4000_SGVboezem_tm2017b.xlsx</v>
       </c>
     </row>
-    <row r="238" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L238" s="5">
         <v>235</v>
       </c>
@@ -34374,7 +34374,7 @@
         <v>4100-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="239" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L239" s="5">
         <v>236</v>
       </c>
@@ -34386,7 +34386,7 @@
         <v>4110-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="240" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L240" s="5">
         <v>237</v>
       </c>
@@ -34398,7 +34398,7 @@
         <v>4110-GAF_F003.xlsx</v>
       </c>
     </row>
-    <row r="241" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L241" s="5">
         <v>238</v>
       </c>
@@ -34410,7 +34410,7 @@
         <v>4130-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="242" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L242" s="5">
         <v>239</v>
       </c>
@@ -34422,7 +34422,7 @@
         <v>4140-GAF_F001.xlsx</v>
       </c>
     </row>
-    <row r="243" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L243" s="5">
         <v>240</v>
       </c>
@@ -34434,7 +34434,7 @@
         <v>4200-EAG-1-3-4_F002.xlsx</v>
       </c>
     </row>
-    <row r="244" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L244" s="5">
         <v>241</v>
       </c>
@@ -34446,7 +34446,7 @@
         <v>4200-EAG-2_F002.xlsx</v>
       </c>
     </row>
-    <row r="245" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L245" s="5">
         <v>242</v>
       </c>
@@ -34458,7 +34458,7 @@
         <v>4200-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="246" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="12:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L246" s="5">
         <v>243</v>
       </c>
@@ -34470,7 +34470,7 @@
         <v>4210-EAG-1-2-3-5_F001.xlsx</v>
       </c>
     </row>
-    <row r="247" spans="12:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="247" spans="12:14" ht="58.35" x14ac:dyDescent="0.5">
       <c r="L247" s="7" t="s">
         <v>1260</v>
       </c>
@@ -34483,11 +34483,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7c1d69d6-3248-424b-85a1-c0d9ad05b603" ContentTypeId="0x0101004F34529632943E4DBB820B36F0ABAA060601" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
+    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
+    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-177037</_dlc_DocId>
+    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
+    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
+      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-177037</Url>
+      <Description>PNHZET2ZRHHM-1647798991-177037</Description>
+    </_dlc_DocIdUrl>
+    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -34537,36 +34564,9 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
-    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
-    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-177037</_dlc_DocId>
-    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
-    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
-      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-177037</Url>
-      <Description>PNHZET2ZRHHM-1647798991-177037</Description>
-    </_dlc_DocIdUrl>
-    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7c1d69d6-3248-424b-85a1-c0d9ad05b603" ContentTypeId="0x0101004F34529632943E4DBB820B36F0ABAA060601" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34870,30 +34870,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66FD23B-6941-41A1-8A1A-FC46E735FC7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D2343-3DBC-4425-9979-C53AF3E8F60A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -34906,6 +34882,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66FD23B-6941-41A1-8A1A-FC46E735FC7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
